--- a/2_data-toolkit/Student_Pathways_Template_Filled.xlsx
+++ b/2_data-toolkit/Student_Pathways_Template_Filled.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bl517\Documents\Github\researched-pdp-toolkit\2_data-toolkit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1481E4-4890-4998-A6E9-D0105812348B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE17C866-BCB6-43D7-9846-78CC1A919F00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="6180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,48 +20,825 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
   <si>
     <t>FirstName</t>
   </si>
   <si>
-    <t>Demo</t>
+    <t>Hiroko</t>
+  </si>
+  <si>
+    <t>Hillary</t>
+  </si>
+  <si>
+    <t>Anika</t>
+  </si>
+  <si>
+    <t>Branden</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>Derek</t>
+  </si>
+  <si>
+    <t>Nora</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Cynthia</t>
+  </si>
+  <si>
+    <t>Quemby</t>
+  </si>
+  <si>
+    <t>Chaim</t>
+  </si>
+  <si>
+    <t>Grady</t>
+  </si>
+  <si>
+    <t>Colin</t>
+  </si>
+  <si>
+    <t>Christen</t>
+  </si>
+  <si>
+    <t>Brody</t>
+  </si>
+  <si>
+    <t>Alvin</t>
+  </si>
+  <si>
+    <t>Pamela</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Elmo</t>
+  </si>
+  <si>
+    <t>Sophia</t>
+  </si>
+  <si>
+    <t>Myra</t>
+  </si>
+  <si>
+    <t>Margaret</t>
+  </si>
+  <si>
+    <t>Abdul</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Leonard</t>
+  </si>
+  <si>
+    <t>Clinton</t>
+  </si>
+  <si>
+    <t>Pearl</t>
+  </si>
+  <si>
+    <t>Cecilia</t>
+  </si>
+  <si>
+    <t>Harding</t>
+  </si>
+  <si>
+    <t>Reece</t>
+  </si>
+  <si>
+    <t>Donna</t>
+  </si>
+  <si>
+    <t>Fay</t>
+  </si>
+  <si>
+    <t>Gregory</t>
+  </si>
+  <si>
+    <t>Raya</t>
+  </si>
+  <si>
+    <t>Sloane</t>
+  </si>
+  <si>
+    <t>Beck</t>
+  </si>
+  <si>
+    <t>Hadley</t>
+  </si>
+  <si>
+    <t>Lawrence</t>
+  </si>
+  <si>
+    <t>Savannah</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Celeste</t>
+  </si>
+  <si>
+    <t>Ivory</t>
+  </si>
+  <si>
+    <t>Addison</t>
+  </si>
+  <si>
+    <t>Cameron</t>
+  </si>
+  <si>
+    <t>Fitzgerald</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>Veda</t>
+  </si>
+  <si>
+    <t>Yvonne</t>
+  </si>
+  <si>
+    <t>Mikayla</t>
+  </si>
+  <si>
+    <t>Zia</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Gage</t>
+  </si>
+  <si>
+    <t>Buffy</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Kathleen</t>
+  </si>
+  <si>
+    <t>Omar</t>
+  </si>
+  <si>
+    <t>Wesley</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Josiah</t>
+  </si>
+  <si>
+    <t>Chantale</t>
+  </si>
+  <si>
+    <t>Burke</t>
+  </si>
+  <si>
+    <t>Desirae</t>
+  </si>
+  <si>
+    <t>Kaden</t>
+  </si>
+  <si>
+    <t>Imani</t>
+  </si>
+  <si>
+    <t>Jana</t>
+  </si>
+  <si>
+    <t>Kato</t>
+  </si>
+  <si>
+    <t>Castor</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>Igor</t>
+  </si>
+  <si>
+    <t>Adrienne</t>
+  </si>
+  <si>
+    <t>Silas</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>Carl</t>
+  </si>
+  <si>
+    <t>Gavin</t>
+  </si>
+  <si>
+    <t>Rooney</t>
+  </si>
+  <si>
+    <t>Yoshio</t>
+  </si>
+  <si>
+    <t>Paula</t>
+  </si>
+  <si>
+    <t>Graham</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Yuri</t>
+  </si>
+  <si>
+    <t>Josiah</t>
+  </si>
+  <si>
+    <t>Dorian</t>
+  </si>
+  <si>
+    <t>Tanya</t>
+  </si>
+  <si>
+    <t>Eugenia</t>
+  </si>
+  <si>
+    <t>Guinevere</t>
+  </si>
+  <si>
+    <t>Acton</t>
   </si>
   <si>
     <t>MiddleName</t>
   </si>
   <si>
-    <t>One</t>
-  </si>
-  <si>
-    <t>Two</t>
-  </si>
-  <si>
-    <t>Three</t>
-  </si>
-  <si>
-    <t>Four</t>
-  </si>
-  <si>
-    <t>Five</t>
-  </si>
-  <si>
-    <t>Six</t>
-  </si>
-  <si>
-    <t>Seven</t>
-  </si>
-  <si>
-    <t>Eight</t>
-  </si>
-  <si>
-    <t>Nine</t>
+    <t>Randall</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Jayme</t>
+  </si>
+  <si>
+    <t>Wang</t>
+  </si>
+  <si>
+    <t>Illiana</t>
+  </si>
+  <si>
+    <t>Gemma</t>
+  </si>
+  <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>Kyra</t>
+  </si>
+  <si>
+    <t>Sheila</t>
+  </si>
+  <si>
+    <t>Tucker</t>
+  </si>
+  <si>
+    <t>Luke</t>
+  </si>
+  <si>
+    <t>Anastasia</t>
+  </si>
+  <si>
+    <t>Kadeem</t>
+  </si>
+  <si>
+    <t>Cameran</t>
+  </si>
+  <si>
+    <t>Hedy</t>
+  </si>
+  <si>
+    <t>Maris</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Lilah</t>
+  </si>
+  <si>
+    <t>Callie</t>
+  </si>
+  <si>
+    <t>Sylvester</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>Meredith</t>
+  </si>
+  <si>
+    <t>Xenos</t>
+  </si>
+  <si>
+    <t>Len</t>
+  </si>
+  <si>
+    <t>Moses</t>
+  </si>
+  <si>
+    <t>Stella</t>
+  </si>
+  <si>
+    <t>Madeson</t>
+  </si>
+  <si>
+    <t>Bryar</t>
+  </si>
+  <si>
+    <t>Boris</t>
+  </si>
+  <si>
+    <t>Kimberley</t>
+  </si>
+  <si>
+    <t>Cameran</t>
+  </si>
+  <si>
+    <t>Maris</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Tallulah</t>
+  </si>
+  <si>
+    <t>Mufutau</t>
+  </si>
+  <si>
+    <t>Ivory</t>
+  </si>
+  <si>
+    <t>Palmer</t>
+  </si>
+  <si>
+    <t>Emerson</t>
+  </si>
+  <si>
+    <t>Hollee</t>
+  </si>
+  <si>
+    <t>Damon</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Mufutau</t>
+  </si>
+  <si>
+    <t>Nathaniel</t>
+  </si>
+  <si>
+    <t>Wynne</t>
+  </si>
+  <si>
+    <t>Dieter</t>
+  </si>
+  <si>
+    <t>Zane</t>
+  </si>
+  <si>
+    <t>Xantha</t>
+  </si>
+  <si>
+    <t>Eliana</t>
+  </si>
+  <si>
+    <t>Branden</t>
+  </si>
+  <si>
+    <t>Murphy</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>Mia</t>
+  </si>
+  <si>
+    <t>Remedios</t>
+  </si>
+  <si>
+    <t>Jared</t>
+  </si>
+  <si>
+    <t>Demetrius</t>
+  </si>
+  <si>
+    <t>Kyra</t>
+  </si>
+  <si>
+    <t>Imani</t>
+  </si>
+  <si>
+    <t>Catherine</t>
+  </si>
+  <si>
+    <t>Gray</t>
+  </si>
+  <si>
+    <t>Ezra</t>
+  </si>
+  <si>
+    <t>Jarrod</t>
+  </si>
+  <si>
+    <t>Teegan</t>
+  </si>
+  <si>
+    <t>Colton</t>
+  </si>
+  <si>
+    <t>Dolan</t>
+  </si>
+  <si>
+    <t>Amaya</t>
+  </si>
+  <si>
+    <t>Chanda</t>
+  </si>
+  <si>
+    <t>Chandler</t>
+  </si>
+  <si>
+    <t>Driscoll</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Caleb</t>
+  </si>
+  <si>
+    <t>Rosalyn</t>
+  </si>
+  <si>
+    <t>Francis</t>
+  </si>
+  <si>
+    <t>Quail</t>
+  </si>
+  <si>
+    <t>Jonas</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Stacy</t>
+  </si>
+  <si>
+    <t>Mason</t>
+  </si>
+  <si>
+    <t>Autumn</t>
+  </si>
+  <si>
+    <t>Brenda</t>
+  </si>
+  <si>
+    <t>Marsden</t>
+  </si>
+  <si>
+    <t>Anjolie</t>
+  </si>
+  <si>
+    <t>Ian</t>
+  </si>
+  <si>
+    <t>Ariel</t>
+  </si>
+  <si>
+    <t>Ayanna</t>
+  </si>
+  <si>
+    <t>Kato</t>
+  </si>
+  <si>
+    <t>Alec</t>
+  </si>
+  <si>
+    <t>Cadman</t>
+  </si>
+  <si>
+    <t>Blaine</t>
   </si>
   <si>
     <t>LastName</t>
   </si>
   <si>
-    <t>Student</t>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Ashley</t>
+  </si>
+  <si>
+    <t>Mays</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Strong</t>
+  </si>
+  <si>
+    <t>Reilly</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Coffey</t>
+  </si>
+  <si>
+    <t>Mccarthy</t>
+  </si>
+  <si>
+    <t>Flowers</t>
+  </si>
+  <si>
+    <t>Kane</t>
+  </si>
+  <si>
+    <t>Brady</t>
+  </si>
+  <si>
+    <t>Pace</t>
+  </si>
+  <si>
+    <t>Evans</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Perry</t>
+  </si>
+  <si>
+    <t>Mayer</t>
+  </si>
+  <si>
+    <t>Emerson</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Joyner</t>
+  </si>
+  <si>
+    <t>Marsh</t>
+  </si>
+  <si>
+    <t>Ellison</t>
+  </si>
+  <si>
+    <t>Dotson</t>
+  </si>
+  <si>
+    <t>Ramsey</t>
+  </si>
+  <si>
+    <t>Ball</t>
+  </si>
+  <si>
+    <t>Puckett</t>
+  </si>
+  <si>
+    <t>Conley</t>
+  </si>
+  <si>
+    <t>Bond</t>
+  </si>
+  <si>
+    <t>Rojas</t>
+  </si>
+  <si>
+    <t>Lane</t>
+  </si>
+  <si>
+    <t>Mccormick</t>
+  </si>
+  <si>
+    <t>Sargent</t>
+  </si>
+  <si>
+    <t>Mcfarland</t>
+  </si>
+  <si>
+    <t>Tran</t>
+  </si>
+  <si>
+    <t>Dennis</t>
+  </si>
+  <si>
+    <t>Stephenson</t>
+  </si>
+  <si>
+    <t>Johns</t>
+  </si>
+  <si>
+    <t>Bates</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>Shannon</t>
+  </si>
+  <si>
+    <t>Simmons</t>
+  </si>
+  <si>
+    <t>Dunn</t>
+  </si>
+  <si>
+    <t>Baird</t>
+  </si>
+  <si>
+    <t>Kaufman</t>
+  </si>
+  <si>
+    <t>Salinas</t>
+  </si>
+  <si>
+    <t>Bernard</t>
+  </si>
+  <si>
+    <t>Ramirez</t>
+  </si>
+  <si>
+    <t>Gordon</t>
+  </si>
+  <si>
+    <t>Hobbs</t>
+  </si>
+  <si>
+    <t>Wells</t>
+  </si>
+  <si>
+    <t>Jacobson</t>
+  </si>
+  <si>
+    <t>Reynolds</t>
+  </si>
+  <si>
+    <t>Hurst</t>
+  </si>
+  <si>
+    <t>Nicholson</t>
+  </si>
+  <si>
+    <t>Haney</t>
+  </si>
+  <si>
+    <t>Mckee</t>
+  </si>
+  <si>
+    <t>Newman</t>
+  </si>
+  <si>
+    <t>Wise</t>
+  </si>
+  <si>
+    <t>Whitaker</t>
+  </si>
+  <si>
+    <t>Tran</t>
+  </si>
+  <si>
+    <t>Henson</t>
+  </si>
+  <si>
+    <t>Hart</t>
+  </si>
+  <si>
+    <t>Duncan</t>
+  </si>
+  <si>
+    <t>Wooten</t>
+  </si>
+  <si>
+    <t>Browning</t>
+  </si>
+  <si>
+    <t>Grant</t>
+  </si>
+  <si>
+    <t>Bender</t>
+  </si>
+  <si>
+    <t>Hood</t>
+  </si>
+  <si>
+    <t>Woods</t>
+  </si>
+  <si>
+    <t>Blankenship</t>
+  </si>
+  <si>
+    <t>Tyson</t>
+  </si>
+  <si>
+    <t>Wooten</t>
+  </si>
+  <si>
+    <t>Roy</t>
+  </si>
+  <si>
+    <t>Hill</t>
+  </si>
+  <si>
+    <t>Morris</t>
+  </si>
+  <si>
+    <t>Armstrong</t>
+  </si>
+  <si>
+    <t>Yates</t>
+  </si>
+  <si>
+    <t>Terry</t>
+  </si>
+  <si>
+    <t>Riddle</t>
+  </si>
+  <si>
+    <t>Sosa</t>
+  </si>
+  <si>
+    <t>Solis</t>
+  </si>
+  <si>
+    <t>Cross</t>
+  </si>
+  <si>
+    <t>Casey</t>
+  </si>
+  <si>
+    <t>Strickland</t>
+  </si>
+  <si>
+    <t>Holloway</t>
+  </si>
+  <si>
+    <t>Browning</t>
+  </si>
+  <si>
+    <t>Sims</t>
+  </si>
+  <si>
+    <t>Mullen</t>
+  </si>
+  <si>
+    <t>Britt</t>
+  </si>
+  <si>
+    <t>Mcclure</t>
   </si>
   <si>
     <t>StudentID</t>
@@ -433,10 +1210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83:H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -446,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>273</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>274</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>275</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -472,10 +1249,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="D2" s="1">
         <v>18675309</v>
@@ -495,13 +1272,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="D3" s="1">
         <v>22888552</v>
@@ -521,13 +1298,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="D4" s="1">
         <v>31862325</v>
@@ -547,13 +1324,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="D5" s="1">
         <v>12345678</v>
@@ -573,13 +1350,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="D6" s="1">
         <v>26889932</v>
@@ -599,13 +1376,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>188</v>
       </c>
       <c r="D7" s="1">
         <v>84455522</v>
@@ -625,13 +1402,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>189</v>
       </c>
       <c r="D8" s="1">
         <v>55522233</v>
@@ -651,13 +1428,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>190</v>
       </c>
       <c r="D9" s="1">
         <v>51485479</v>
@@ -677,13 +1454,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>191</v>
       </c>
       <c r="D10" s="1">
         <v>15848715</v>
@@ -698,6 +1475,2112 @@
         <v>513801</v>
       </c>
       <c r="H10" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10071153</v>
+      </c>
+      <c r="E11" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F11" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G11" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H11" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="1">
+        <v>85410235</v>
+      </c>
+      <c r="E12" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F12" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G12" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H12" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="1">
+        <v>96247920</v>
+      </c>
+      <c r="E13" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F13" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G13" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H13" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" s="1">
+        <v>53248965</v>
+      </c>
+      <c r="E14" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F14" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G14" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H14" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="1">
+        <v>37198546</v>
+      </c>
+      <c r="E15" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F15" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G15" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H15" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D16" s="1">
+        <v>90074652</v>
+      </c>
+      <c r="E16" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F16" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G16" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H16" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17" s="1">
+        <v>31455879</v>
+      </c>
+      <c r="E17" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F17" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G17" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H17" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18" s="1">
+        <v>20014796</v>
+      </c>
+      <c r="E18" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F18" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G18" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H18" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" s="1">
+        <v>35741998</v>
+      </c>
+      <c r="E19" s="1">
+        <v>513801</v>
+      </c>
+      <c r="F19" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G19" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H19" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20" s="1">
+        <v>66986674</v>
+      </c>
+      <c r="E20" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F20" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G20" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H20" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="1">
+        <v>30225978</v>
+      </c>
+      <c r="E21" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F21" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G21" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H21" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D22" s="1">
+        <v>79946581</v>
+      </c>
+      <c r="E22" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F22" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G22" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H22" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" t="s">
+        <v>204</v>
+      </c>
+      <c r="D23" s="1">
+        <v>18010278</v>
+      </c>
+      <c r="E23" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F23" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G23" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H23" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" t="s">
+        <v>205</v>
+      </c>
+      <c r="D24" s="1">
+        <v>44612238</v>
+      </c>
+      <c r="E24" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F24" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G24" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H24" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" t="s">
+        <v>206</v>
+      </c>
+      <c r="D25" s="1">
+        <v>19333010</v>
+      </c>
+      <c r="E25" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F25" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G25" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H25" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" t="s">
+        <v>207</v>
+      </c>
+      <c r="D26" s="1">
+        <v>36997736</v>
+      </c>
+      <c r="E26" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F26" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G26" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H26" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" t="s">
+        <v>208</v>
+      </c>
+      <c r="D27" s="1">
+        <v>72036395</v>
+      </c>
+      <c r="E27" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F27" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G27" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H27" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" s="1">
+        <v>35813030</v>
+      </c>
+      <c r="E28" s="1">
+        <v>513801</v>
+      </c>
+      <c r="F28" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G28" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H28" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" t="s">
+        <v>210</v>
+      </c>
+      <c r="D29" s="1">
+        <v>22576723</v>
+      </c>
+      <c r="E29" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F29" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G29" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H29" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" t="s">
+        <v>211</v>
+      </c>
+      <c r="D30" s="1">
+        <v>34138538</v>
+      </c>
+      <c r="E30" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F30" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G30" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H30" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" t="s">
+        <v>212</v>
+      </c>
+      <c r="D31" s="1">
+        <v>71019874</v>
+      </c>
+      <c r="E31" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F31" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G31" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H31" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" t="s">
+        <v>213</v>
+      </c>
+      <c r="D32" s="1">
+        <v>16579875</v>
+      </c>
+      <c r="E32" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F32" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G32" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H32" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" t="s">
+        <v>214</v>
+      </c>
+      <c r="D33" s="1">
+        <v>67361404</v>
+      </c>
+      <c r="E33" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F33" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G33" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H33" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" t="s">
+        <v>215</v>
+      </c>
+      <c r="D34" s="1">
+        <v>62269903</v>
+      </c>
+      <c r="E34" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F34" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G34" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H34" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" t="s">
+        <v>216</v>
+      </c>
+      <c r="D35" s="1">
+        <v>38740595</v>
+      </c>
+      <c r="E35" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F35" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G35" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H35" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" t="s">
+        <v>217</v>
+      </c>
+      <c r="D36" s="1">
+        <v>31549264</v>
+      </c>
+      <c r="E36" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F36" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G36" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H36" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" t="s">
+        <v>218</v>
+      </c>
+      <c r="D37" s="1">
+        <v>29959481</v>
+      </c>
+      <c r="E37" s="1">
+        <v>513801</v>
+      </c>
+      <c r="F37" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G37" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H37" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" t="s">
+        <v>219</v>
+      </c>
+      <c r="D38" s="1">
+        <v>89456748</v>
+      </c>
+      <c r="E38" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F38" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G38" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H38" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" t="s">
+        <v>220</v>
+      </c>
+      <c r="D39" s="1">
+        <v>70481897</v>
+      </c>
+      <c r="E39" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F39" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G39" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H39" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" t="s">
+        <v>221</v>
+      </c>
+      <c r="D40" s="1">
+        <v>52480659</v>
+      </c>
+      <c r="E40" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F40" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G40" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H40" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" t="s">
+        <v>222</v>
+      </c>
+      <c r="D41" s="1">
+        <v>53203984</v>
+      </c>
+      <c r="E41" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F41" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G41" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H41" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" t="s">
+        <v>223</v>
+      </c>
+      <c r="D42" s="1">
+        <v>90005277</v>
+      </c>
+      <c r="E42" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F42" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G42" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H42" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" t="s">
+        <v>224</v>
+      </c>
+      <c r="D43" s="1">
+        <v>96961171</v>
+      </c>
+      <c r="E43" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F43" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G43" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H43" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" t="s">
+        <v>225</v>
+      </c>
+      <c r="D44" s="1">
+        <v>47839980</v>
+      </c>
+      <c r="E44" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F44" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G44" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H44" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" t="s">
+        <v>226</v>
+      </c>
+      <c r="D45" s="1">
+        <v>97256427</v>
+      </c>
+      <c r="E45" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F45" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G45" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H45" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
+        <v>227</v>
+      </c>
+      <c r="D46" s="1">
+        <v>32959101</v>
+      </c>
+      <c r="E46" s="1">
+        <v>513801</v>
+      </c>
+      <c r="F46" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G46" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H46" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" t="s">
+        <v>228</v>
+      </c>
+      <c r="D47" s="1">
+        <v>34581505</v>
+      </c>
+      <c r="E47" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F47" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G47" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H47" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" t="s">
+        <v>229</v>
+      </c>
+      <c r="D48" s="1">
+        <v>30502751</v>
+      </c>
+      <c r="E48" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F48" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G48" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H48" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" t="s">
+        <v>230</v>
+      </c>
+      <c r="D49" s="1">
+        <v>47616117</v>
+      </c>
+      <c r="E49" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F49" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G49" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H49" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" t="s">
+        <v>231</v>
+      </c>
+      <c r="D50" s="1">
+        <v>44854095</v>
+      </c>
+      <c r="E50" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F50" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G50" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H50" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" t="s">
+        <v>232</v>
+      </c>
+      <c r="D51" s="1">
+        <v>14448096</v>
+      </c>
+      <c r="E51" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F51" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G51" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H51" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" t="s">
+        <v>233</v>
+      </c>
+      <c r="D52" s="1">
+        <v>77608568</v>
+      </c>
+      <c r="E52" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F52" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G52" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H52" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" t="s">
+        <v>234</v>
+      </c>
+      <c r="D53" s="1">
+        <v>26210315</v>
+      </c>
+      <c r="E53" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F53" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G53" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H53" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54" t="s">
+        <v>235</v>
+      </c>
+      <c r="D54" s="1">
+        <v>27916738</v>
+      </c>
+      <c r="E54" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F54" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G54" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H54" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" t="s">
+        <v>236</v>
+      </c>
+      <c r="D55" s="1">
+        <v>97850343</v>
+      </c>
+      <c r="E55" s="1">
+        <v>513801</v>
+      </c>
+      <c r="F55" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G55" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H55" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" t="s">
+        <v>237</v>
+      </c>
+      <c r="D56" s="1">
+        <v>68996444</v>
+      </c>
+      <c r="E56" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F56" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G56" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H56" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" t="s">
+        <v>238</v>
+      </c>
+      <c r="D57" s="1">
+        <v>10001198</v>
+      </c>
+      <c r="E57" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F57" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G57" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H57" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" t="s">
+        <v>239</v>
+      </c>
+      <c r="D58" s="1">
+        <v>19479210</v>
+      </c>
+      <c r="E58" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F58" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G58" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H58" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" t="s">
+        <v>240</v>
+      </c>
+      <c r="D59" s="1">
+        <v>44753114</v>
+      </c>
+      <c r="E59" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F59" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G59" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H59" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" t="s">
+        <v>241</v>
+      </c>
+      <c r="D60" s="1">
+        <v>65992962</v>
+      </c>
+      <c r="E60" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F60" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G60" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H60" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" t="s">
+        <v>242</v>
+      </c>
+      <c r="D61" s="1">
+        <v>83801115</v>
+      </c>
+      <c r="E61" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F61" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G61" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H61" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62" t="s">
+        <v>243</v>
+      </c>
+      <c r="D62" s="1">
+        <v>71414181</v>
+      </c>
+      <c r="E62" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F62" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G62" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H62" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" t="s">
+        <v>244</v>
+      </c>
+      <c r="D63" s="1">
+        <v>97083398</v>
+      </c>
+      <c r="E63" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F63" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G63" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H63" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" t="s">
+        <v>245</v>
+      </c>
+      <c r="D64" s="1">
+        <v>74194765</v>
+      </c>
+      <c r="E64" s="1">
+        <v>513801</v>
+      </c>
+      <c r="F64" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G64" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H64" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" t="s">
+        <v>246</v>
+      </c>
+      <c r="D65" s="1">
+        <v>48546859</v>
+      </c>
+      <c r="E65" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F65" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G65" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H65" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" t="s">
+        <v>247</v>
+      </c>
+      <c r="D66" s="1">
+        <v>22798466</v>
+      </c>
+      <c r="E66" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F66" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G66" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H66" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" t="s">
+        <v>248</v>
+      </c>
+      <c r="D67" s="1">
+        <v>74483418</v>
+      </c>
+      <c r="E67" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F67" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G67" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H67" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68" t="s">
+        <v>249</v>
+      </c>
+      <c r="D68" s="1">
+        <v>63710405</v>
+      </c>
+      <c r="E68" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F68" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G68" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H68" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" t="s">
+        <v>250</v>
+      </c>
+      <c r="D69" s="1">
+        <v>49153213</v>
+      </c>
+      <c r="E69" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F69" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G69" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H69" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" t="s">
+        <v>251</v>
+      </c>
+      <c r="D70" s="1">
+        <v>93071057</v>
+      </c>
+      <c r="E70" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F70" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G70" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H70" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" t="s">
+        <v>252</v>
+      </c>
+      <c r="D71" s="1">
+        <v>86669365</v>
+      </c>
+      <c r="E71" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F71" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G71" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H71" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>162</v>
+      </c>
+      <c r="C72" t="s">
+        <v>253</v>
+      </c>
+      <c r="D72" s="1">
+        <v>13064230</v>
+      </c>
+      <c r="E72" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F72" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G72" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H72" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>163</v>
+      </c>
+      <c r="C73" t="s">
+        <v>254</v>
+      </c>
+      <c r="D73" s="1">
+        <v>34657295</v>
+      </c>
+      <c r="E73" s="1">
+        <v>513801</v>
+      </c>
+      <c r="F73" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G73" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H73" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74" t="s">
+        <v>255</v>
+      </c>
+      <c r="D74" s="1">
+        <v>69646287</v>
+      </c>
+      <c r="E74" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F74" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G74" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H74" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75" t="s">
+        <v>256</v>
+      </c>
+      <c r="D75" s="1">
+        <v>60416446</v>
+      </c>
+      <c r="E75" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F75" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G75" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H75" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76" t="s">
+        <v>257</v>
+      </c>
+      <c r="D76" s="1">
+        <v>55329740</v>
+      </c>
+      <c r="E76" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F76" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G76" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H76" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>167</v>
+      </c>
+      <c r="C77" t="s">
+        <v>258</v>
+      </c>
+      <c r="D77" s="1">
+        <v>54485614</v>
+      </c>
+      <c r="E77" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F77" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G77" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H77" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" t="s">
+        <v>259</v>
+      </c>
+      <c r="D78" s="1">
+        <v>77544149</v>
+      </c>
+      <c r="E78" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F78" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G78" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H78" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>169</v>
+      </c>
+      <c r="C79" t="s">
+        <v>260</v>
+      </c>
+      <c r="D79" s="1">
+        <v>97849544</v>
+      </c>
+      <c r="E79" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F79" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G79" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H79" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>170</v>
+      </c>
+      <c r="C80" t="s">
+        <v>261</v>
+      </c>
+      <c r="D80" s="1">
+        <v>21831834</v>
+      </c>
+      <c r="E80" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F80" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G80" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H80" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>171</v>
+      </c>
+      <c r="C81" t="s">
+        <v>262</v>
+      </c>
+      <c r="D81" s="1">
+        <v>93239368</v>
+      </c>
+      <c r="E81" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F81" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G81" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H81" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>172</v>
+      </c>
+      <c r="C82" t="s">
+        <v>263</v>
+      </c>
+      <c r="D82" s="1">
+        <v>93574788</v>
+      </c>
+      <c r="E82" s="1">
+        <v>513801</v>
+      </c>
+      <c r="F82" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G82" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H82" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>173</v>
+      </c>
+      <c r="C83" t="s">
+        <v>264</v>
+      </c>
+      <c r="D83" s="1">
+        <v>93200277</v>
+      </c>
+      <c r="E83" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F83" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G83" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H83" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>174</v>
+      </c>
+      <c r="C84" t="s">
+        <v>265</v>
+      </c>
+      <c r="D84" s="1">
+        <v>87974458</v>
+      </c>
+      <c r="E84" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F84" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G84" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H84" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" t="s">
+        <v>266</v>
+      </c>
+      <c r="D85" s="1">
+        <v>98973712</v>
+      </c>
+      <c r="E85" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F85" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G85" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H85" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>176</v>
+      </c>
+      <c r="C86" t="s">
+        <v>267</v>
+      </c>
+      <c r="D86" s="1">
+        <v>48772818</v>
+      </c>
+      <c r="E86" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F86" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G86" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H86" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>177</v>
+      </c>
+      <c r="C87" t="s">
+        <v>268</v>
+      </c>
+      <c r="D87" s="1">
+        <v>42192523</v>
+      </c>
+      <c r="E87" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F87" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G87" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H87" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88" t="s">
+        <v>269</v>
+      </c>
+      <c r="D88" s="1">
+        <v>90456540</v>
+      </c>
+      <c r="E88" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F88" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G88" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H88" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" t="s">
+        <v>270</v>
+      </c>
+      <c r="D89" s="1">
+        <v>83057203</v>
+      </c>
+      <c r="E89" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F89" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G89" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H89" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>180</v>
+      </c>
+      <c r="C90" t="s">
+        <v>271</v>
+      </c>
+      <c r="D90" s="1">
+        <v>42719225</v>
+      </c>
+      <c r="E90" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F90" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G90" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H90" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>181</v>
+      </c>
+      <c r="C91" t="s">
+        <v>272</v>
+      </c>
+      <c r="D91" s="1">
+        <v>14891488</v>
+      </c>
+      <c r="E91" s="1">
+        <v>513801</v>
+      </c>
+      <c r="F91" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G91" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H91" s="1">
         <v>513801</v>
       </c>
     </row>

--- a/2_data-toolkit/Student_Pathways_Template_Filled.xlsx
+++ b/2_data-toolkit/Student_Pathways_Template_Filled.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bl517\Documents\Github\researched-pdp-toolkit\2_data-toolkit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE17C866-BCB6-43D7-9846-78CC1A919F00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9C5FEA-38DC-443B-8294-50061F596EEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$121</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1210,13 +1213,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H621"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83:H91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E509" sqref="E509:H532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -1466,7 +1472,7 @@
         <v>15848715</v>
       </c>
       <c r="E10" s="1">
-        <v>513801</v>
+        <v>540101</v>
       </c>
       <c r="F10" s="1">
         <v>513801</v>
@@ -1700,7 +1706,7 @@
         <v>35741998</v>
       </c>
       <c r="E19" s="1">
-        <v>513801</v>
+        <v>540101</v>
       </c>
       <c r="F19" s="1">
         <v>513801</v>
@@ -1934,7 +1940,7 @@
         <v>35813030</v>
       </c>
       <c r="E28" s="1">
-        <v>513801</v>
+        <v>540101</v>
       </c>
       <c r="F28" s="1">
         <v>513801</v>
@@ -2168,7 +2174,7 @@
         <v>29959481</v>
       </c>
       <c r="E37" s="1">
-        <v>513801</v>
+        <v>540101</v>
       </c>
       <c r="F37" s="1">
         <v>513801</v>
@@ -2402,7 +2408,7 @@
         <v>32959101</v>
       </c>
       <c r="E46" s="1">
-        <v>513801</v>
+        <v>540101</v>
       </c>
       <c r="F46" s="1">
         <v>513801</v>
@@ -2480,13 +2486,13 @@
         <v>47616117</v>
       </c>
       <c r="E49" s="1">
-        <v>513899</v>
+        <v>230101</v>
       </c>
       <c r="F49" s="1">
-        <v>513899</v>
+        <v>230101</v>
       </c>
       <c r="G49" s="1">
-        <v>513899</v>
+        <v>230101</v>
       </c>
       <c r="H49" s="1">
         <v>230101</v>
@@ -2636,7 +2642,7 @@
         <v>97850343</v>
       </c>
       <c r="E55" s="1">
-        <v>513801</v>
+        <v>540101</v>
       </c>
       <c r="F55" s="1">
         <v>513801</v>
@@ -2870,7 +2876,7 @@
         <v>74194765</v>
       </c>
       <c r="E64" s="1">
-        <v>513801</v>
+        <v>540101</v>
       </c>
       <c r="F64" s="1">
         <v>513801</v>
@@ -3104,7 +3110,7 @@
         <v>34657295</v>
       </c>
       <c r="E73" s="1">
-        <v>513801</v>
+        <v>540101</v>
       </c>
       <c r="F73" s="1">
         <v>513801</v>
@@ -3338,7 +3344,7 @@
         <v>93574788</v>
       </c>
       <c r="E82" s="1">
-        <v>513801</v>
+        <v>540101</v>
       </c>
       <c r="F82" s="1">
         <v>513801</v>
@@ -3572,7 +3578,7 @@
         <v>14891488</v>
       </c>
       <c r="E91" s="1">
-        <v>513801</v>
+        <v>540101</v>
       </c>
       <c r="F91" s="1">
         <v>513801</v>
@@ -3584,7 +3590,9018 @@
         <v>513801</v>
       </c>
     </row>
+    <row r="92" spans="1:8">
+      <c r="D92">
+        <v>71414171</v>
+      </c>
+      <c r="E92" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F92" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G92" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H92" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="D93">
+        <v>97083388</v>
+      </c>
+      <c r="E93" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F93" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G93" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H93" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="D94">
+        <v>74194755</v>
+      </c>
+      <c r="E94" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F94" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G94" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H94" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="D95">
+        <v>48546849</v>
+      </c>
+      <c r="E95" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F95" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G95" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H95" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="D96">
+        <v>22798456</v>
+      </c>
+      <c r="E96" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F96" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G96" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H96" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="97" spans="4:8">
+      <c r="D97">
+        <v>74483408</v>
+      </c>
+      <c r="E97" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F97" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G97" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H97" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="98" spans="4:8">
+      <c r="D98">
+        <v>63710395</v>
+      </c>
+      <c r="E98" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F98" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G98" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H98" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="99" spans="4:8">
+      <c r="D99">
+        <v>49153203</v>
+      </c>
+      <c r="E99" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F99" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G99" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H99" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="100" spans="4:8">
+      <c r="D100">
+        <v>93071047</v>
+      </c>
+      <c r="E100" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F100" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G100" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H100" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="101" spans="4:8">
+      <c r="D101">
+        <v>86669355</v>
+      </c>
+      <c r="E101" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F101" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G101" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H101" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="102" spans="4:8">
+      <c r="D102">
+        <v>13064220</v>
+      </c>
+      <c r="E102" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F102" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G102" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H102" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="103" spans="4:8">
+      <c r="D103">
+        <v>34657285</v>
+      </c>
+      <c r="E103" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F103" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G103" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H103" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="104" spans="4:8">
+      <c r="D104">
+        <v>69646277</v>
+      </c>
+      <c r="E104" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F104" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G104" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H104" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="105" spans="4:8">
+      <c r="D105">
+        <v>60416436</v>
+      </c>
+      <c r="E105" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F105" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G105" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H105" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="106" spans="4:8">
+      <c r="D106">
+        <v>55329730</v>
+      </c>
+      <c r="E106" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F106" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G106" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H106" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="107" spans="4:8">
+      <c r="D107">
+        <v>54485604</v>
+      </c>
+      <c r="E107" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F107" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G107" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H107" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="108" spans="4:8">
+      <c r="D108">
+        <v>77544139</v>
+      </c>
+      <c r="E108" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F108" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G108" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H108" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="109" spans="4:8">
+      <c r="D109">
+        <v>97849534</v>
+      </c>
+      <c r="E109" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F109" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G109" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H109" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="110" spans="4:8">
+      <c r="D110">
+        <v>21831824</v>
+      </c>
+      <c r="E110" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F110" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G110" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H110" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="111" spans="4:8">
+      <c r="D111">
+        <v>93239358</v>
+      </c>
+      <c r="E111" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F111" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G111" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H111" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="112" spans="4:8">
+      <c r="D112">
+        <v>93574778</v>
+      </c>
+      <c r="E112" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F112" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G112" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H112" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="113" spans="4:8">
+      <c r="D113">
+        <v>93200267</v>
+      </c>
+      <c r="E113" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F113" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G113" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H113" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="114" spans="4:8">
+      <c r="D114">
+        <v>87974448</v>
+      </c>
+      <c r="E114" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F114" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G114" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H114" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="115" spans="4:8">
+      <c r="D115">
+        <v>98973702</v>
+      </c>
+      <c r="E115" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F115" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G115" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H115" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="116" spans="4:8">
+      <c r="D116">
+        <v>48772808</v>
+      </c>
+      <c r="E116" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F116" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G116" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H116" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="117" spans="4:8">
+      <c r="D117">
+        <v>42192513</v>
+      </c>
+      <c r="E117" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F117" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G117" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H117" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="118" spans="4:8">
+      <c r="D118">
+        <v>90456530</v>
+      </c>
+      <c r="E118" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F118" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G118" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H118" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="119" spans="4:8">
+      <c r="D119">
+        <v>83057193</v>
+      </c>
+      <c r="E119" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F119" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G119" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H119" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="120" spans="4:8">
+      <c r="D120">
+        <v>42719215</v>
+      </c>
+      <c r="E120" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F120" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G120" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H120" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="121" spans="4:8">
+      <c r="D121">
+        <v>14891478</v>
+      </c>
+      <c r="E121" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F121" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G121" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H121" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="122" spans="4:8">
+      <c r="D122">
+        <v>261401294</v>
+      </c>
+      <c r="E122" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F122" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G122" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H122" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="123" spans="4:8">
+      <c r="D123">
+        <v>782811917</v>
+      </c>
+      <c r="E123" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F123" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G123" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H123" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="124" spans="4:8">
+      <c r="D124">
+        <v>918023337</v>
+      </c>
+      <c r="E124" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F124" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G124" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H124" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="125" spans="4:8">
+      <c r="D125">
+        <v>220710261</v>
+      </c>
+      <c r="E125" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F125" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G125" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H125" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="126" spans="4:8">
+      <c r="D126">
+        <v>320886244</v>
+      </c>
+      <c r="E126" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F126" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G126" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H126" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="127" spans="4:8">
+      <c r="D127">
+        <v>988370189</v>
+      </c>
+      <c r="E127" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F127" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G127" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H127" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="128" spans="4:8">
+      <c r="D128">
+        <v>862679960</v>
+      </c>
+      <c r="E128" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F128" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G128" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H128" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="129" spans="4:8">
+      <c r="D129">
+        <v>542099290</v>
+      </c>
+      <c r="E129" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F129" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G129" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H129" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="130" spans="4:8">
+      <c r="D130">
+        <v>434689370</v>
+      </c>
+      <c r="E130" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F130" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G130" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H130" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="131" spans="4:8">
+      <c r="D131">
+        <v>699306587</v>
+      </c>
+      <c r="E131" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F131" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G131" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H131" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="132" spans="4:8">
+      <c r="D132">
+        <v>703520648</v>
+      </c>
+      <c r="E132" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F132" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G132" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H132" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="133" spans="4:8">
+      <c r="D133">
+        <v>768775778</v>
+      </c>
+      <c r="E133" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F133" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G133" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H133" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="134" spans="4:8">
+      <c r="D134">
+        <v>289241369</v>
+      </c>
+      <c r="E134" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F134" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G134" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H134" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="135" spans="4:8">
+      <c r="D135">
+        <v>268175017</v>
+      </c>
+      <c r="E135" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F135" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G135" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H135" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="136" spans="4:8">
+      <c r="D136">
+        <v>919121059</v>
+      </c>
+      <c r="E136" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F136" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G136" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H136" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="137" spans="4:8">
+      <c r="D137">
+        <v>205740880</v>
+      </c>
+      <c r="E137" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F137" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G137" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H137" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="138" spans="4:8">
+      <c r="D138">
+        <v>136321126</v>
+      </c>
+      <c r="E138" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F138" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G138" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H138" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="139" spans="4:8">
+      <c r="D139">
+        <v>392830027</v>
+      </c>
+      <c r="E139" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F139" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G139" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H139" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="140" spans="4:8">
+      <c r="D140">
+        <v>713313055</v>
+      </c>
+      <c r="E140" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F140" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G140" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H140" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="141" spans="4:8">
+      <c r="D141">
+        <v>803159916</v>
+      </c>
+      <c r="E141" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F141" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G141" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H141" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="142" spans="4:8">
+      <c r="D142">
+        <v>754713736</v>
+      </c>
+      <c r="E142" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F142" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G142" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H142" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="143" spans="4:8">
+      <c r="D143">
+        <v>168606874</v>
+      </c>
+      <c r="E143" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F143" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G143" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H143" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="144" spans="4:8">
+      <c r="D144">
+        <v>296833588</v>
+      </c>
+      <c r="E144" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F144" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G144" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H144" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="145" spans="4:8">
+      <c r="D145">
+        <v>310116404</v>
+      </c>
+      <c r="E145" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F145" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G145" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H145" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="146" spans="4:8">
+      <c r="D146">
+        <v>361764319</v>
+      </c>
+      <c r="E146" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F146" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G146" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H146" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="147" spans="4:8">
+      <c r="D147">
+        <v>647733720</v>
+      </c>
+      <c r="E147" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F147" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G147" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H147" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="148" spans="4:8">
+      <c r="D148">
+        <v>722944220</v>
+      </c>
+      <c r="E148" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F148" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G148" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H148" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="149" spans="4:8">
+      <c r="D149">
+        <v>809105735</v>
+      </c>
+      <c r="E149" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F149" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G149" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H149" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="150" spans="4:8">
+      <c r="D150">
+        <v>675358526</v>
+      </c>
+      <c r="E150" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F150" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G150" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H150" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="151" spans="4:8">
+      <c r="D151">
+        <v>377639889</v>
+      </c>
+      <c r="E151" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F151" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G151" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H151" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="152" spans="4:8">
+      <c r="D152">
+        <v>358002936</v>
+      </c>
+      <c r="E152" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F152" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G152" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H152" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="153" spans="4:8">
+      <c r="D153">
+        <v>290476440</v>
+      </c>
+      <c r="E153" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F153" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G153" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H153" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="154" spans="4:8">
+      <c r="D154">
+        <v>119243284</v>
+      </c>
+      <c r="E154" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F154" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G154" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H154" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="155" spans="4:8">
+      <c r="D155">
+        <v>657554910</v>
+      </c>
+      <c r="E155" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F155" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G155" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H155" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="156" spans="4:8">
+      <c r="D156">
+        <v>537197939</v>
+      </c>
+      <c r="E156" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F156" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G156" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H156" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="157" spans="4:8">
+      <c r="D157">
+        <v>820030151</v>
+      </c>
+      <c r="E157" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F157" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G157" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H157" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="158" spans="4:8">
+      <c r="D158">
+        <v>541806677</v>
+      </c>
+      <c r="E158" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F158" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G158" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H158" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="159" spans="4:8">
+      <c r="D159">
+        <v>686099920</v>
+      </c>
+      <c r="E159" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F159" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G159" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H159" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="160" spans="4:8">
+      <c r="D160">
+        <v>661358641</v>
+      </c>
+      <c r="E160" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F160" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G160" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H160" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="161" spans="4:8">
+      <c r="D161">
+        <v>501647649</v>
+      </c>
+      <c r="E161" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F161" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G161" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H161" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="162" spans="4:8">
+      <c r="D162">
+        <v>402198796</v>
+      </c>
+      <c r="E162" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F162" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G162" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H162" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="163" spans="4:8">
+      <c r="D163">
+        <v>238680309</v>
+      </c>
+      <c r="E163" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F163" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G163" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H163" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="164" spans="4:8">
+      <c r="D164">
+        <v>529413683</v>
+      </c>
+      <c r="E164" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F164" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G164" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H164" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="165" spans="4:8">
+      <c r="D165">
+        <v>806255830</v>
+      </c>
+      <c r="E165" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F165" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G165" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H165" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="166" spans="4:8">
+      <c r="D166">
+        <v>790103719</v>
+      </c>
+      <c r="E166" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F166" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G166" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H166" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="167" spans="4:8">
+      <c r="D167">
+        <v>895823389</v>
+      </c>
+      <c r="E167" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F167" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G167" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H167" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="168" spans="4:8">
+      <c r="D168">
+        <v>360829854</v>
+      </c>
+      <c r="E168" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F168" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G168" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H168" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="169" spans="4:8">
+      <c r="D169">
+        <v>311678271</v>
+      </c>
+      <c r="E169" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F169" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G169" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H169" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="170" spans="4:8">
+      <c r="D170">
+        <v>467159181</v>
+      </c>
+      <c r="E170" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F170" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G170" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H170" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="171" spans="4:8">
+      <c r="D171">
+        <v>735195871</v>
+      </c>
+      <c r="E171" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F171" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G171" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H171" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="172" spans="4:8">
+      <c r="D172">
+        <v>347871554</v>
+      </c>
+      <c r="E172" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F172" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G172" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H172" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="173" spans="4:8">
+      <c r="D173">
+        <v>613211381</v>
+      </c>
+      <c r="E173" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F173" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G173" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H173" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="174" spans="4:8">
+      <c r="D174">
+        <v>762247246</v>
+      </c>
+      <c r="E174" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F174" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G174" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H174" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="175" spans="4:8">
+      <c r="D175">
+        <v>709530020</v>
+      </c>
+      <c r="E175" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F175" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G175" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H175" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="176" spans="4:8">
+      <c r="D176">
+        <v>612222258</v>
+      </c>
+      <c r="E176" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F176" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G176" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H176" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="177" spans="4:8">
+      <c r="D177">
+        <v>843029937</v>
+      </c>
+      <c r="E177" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F177" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G177" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H177" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="178" spans="4:8">
+      <c r="D178">
+        <v>190810603</v>
+      </c>
+      <c r="E178" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F178" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G178" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H178" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="179" spans="4:8">
+      <c r="D179">
+        <v>408398409</v>
+      </c>
+      <c r="E179" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F179" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G179" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H179" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="180" spans="4:8">
+      <c r="D180">
+        <v>364988883</v>
+      </c>
+      <c r="E180" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F180" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G180" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H180" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="181" spans="4:8">
+      <c r="D181">
+        <v>144904208</v>
+      </c>
+      <c r="E181" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F181" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G181" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H181" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="182" spans="4:8">
+      <c r="D182">
+        <v>498277421</v>
+      </c>
+      <c r="E182" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F182" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G182" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H182" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="183" spans="4:8">
+      <c r="D183">
+        <v>518545501</v>
+      </c>
+      <c r="E183" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F183" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G183" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H183" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="184" spans="4:8">
+      <c r="D184">
+        <v>692330519</v>
+      </c>
+      <c r="E184" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F184" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G184" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H184" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="185" spans="4:8">
+      <c r="D185">
+        <v>577127638</v>
+      </c>
+      <c r="E185" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F185" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G185" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H185" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="186" spans="4:8">
+      <c r="D186">
+        <v>408950918</v>
+      </c>
+      <c r="E186" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F186" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G186" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H186" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="187" spans="4:8">
+      <c r="D187">
+        <v>936515790</v>
+      </c>
+      <c r="E187" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F187" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G187" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H187" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="188" spans="4:8">
+      <c r="D188">
+        <v>109853593</v>
+      </c>
+      <c r="E188" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F188" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G188" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H188" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="189" spans="4:8">
+      <c r="D189">
+        <v>744177901</v>
+      </c>
+      <c r="E189" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F189" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G189" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H189" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="190" spans="4:8">
+      <c r="D190">
+        <v>552888735</v>
+      </c>
+      <c r="E190" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F190" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G190" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H190" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="191" spans="4:8">
+      <c r="D191">
+        <v>798958852</v>
+      </c>
+      <c r="E191" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F191" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G191" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H191" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="192" spans="4:8">
+      <c r="D192">
+        <v>658182159</v>
+      </c>
+      <c r="E192" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F192" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G192" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H192" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="193" spans="4:8">
+      <c r="D193">
+        <v>588095519</v>
+      </c>
+      <c r="E193" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F193" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G193" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H193" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="194" spans="4:8">
+      <c r="D194">
+        <v>822771510</v>
+      </c>
+      <c r="E194" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F194" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G194" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H194" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="195" spans="4:8">
+      <c r="D195">
+        <v>624978083</v>
+      </c>
+      <c r="E195" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F195" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G195" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H195" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="196" spans="4:8">
+      <c r="D196">
+        <v>635532781</v>
+      </c>
+      <c r="E196" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F196" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G196" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H196" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="197" spans="4:8">
+      <c r="D197">
+        <v>485568764</v>
+      </c>
+      <c r="E197" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F197" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G197" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H197" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="198" spans="4:8">
+      <c r="D198">
+        <v>994583768</v>
+      </c>
+      <c r="E198" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F198" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G198" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H198" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="199" spans="4:8">
+      <c r="D199">
+        <v>505175093</v>
+      </c>
+      <c r="E199" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F199" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G199" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H199" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="200" spans="4:8">
+      <c r="D200">
+        <v>164589960</v>
+      </c>
+      <c r="E200" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F200" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G200" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H200" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="201" spans="4:8">
+      <c r="D201">
+        <v>800901089</v>
+      </c>
+      <c r="E201" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F201" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G201" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H201" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="202" spans="4:8">
+      <c r="D202">
+        <v>203764556</v>
+      </c>
+      <c r="E202" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F202" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G202" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H202" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="203" spans="4:8">
+      <c r="D203">
+        <v>904484974</v>
+      </c>
+      <c r="E203" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F203" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G203" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H203" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="204" spans="4:8">
+      <c r="D204">
+        <v>773622211</v>
+      </c>
+      <c r="E204" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F204" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G204" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H204" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="205" spans="4:8">
+      <c r="D205">
+        <v>754348967</v>
+      </c>
+      <c r="E205" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F205" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G205" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H205" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="206" spans="4:8">
+      <c r="D206">
+        <v>535389400</v>
+      </c>
+      <c r="E206" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F206" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G206" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H206" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="207" spans="4:8">
+      <c r="D207">
+        <v>755352151</v>
+      </c>
+      <c r="E207" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F207" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G207" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H207" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="208" spans="4:8">
+      <c r="D208">
+        <v>590031562</v>
+      </c>
+      <c r="E208" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F208" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G208" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H208" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="209" spans="4:8">
+      <c r="D209">
+        <v>832900371</v>
+      </c>
+      <c r="E209" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F209" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G209" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H209" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="210" spans="4:8">
+      <c r="D210">
+        <v>304714859</v>
+      </c>
+      <c r="E210" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F210" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G210" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H210" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="211" spans="4:8">
+      <c r="D211">
+        <v>537610672</v>
+      </c>
+      <c r="E211" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F211" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G211" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H211" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="212" spans="4:8">
+      <c r="D212">
+        <v>404737082</v>
+      </c>
+      <c r="E212" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F212" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G212" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H212" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="213" spans="4:8">
+      <c r="D213">
+        <v>239720202</v>
+      </c>
+      <c r="E213" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F213" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G213" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H213" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="214" spans="4:8">
+      <c r="D214">
+        <v>326977069</v>
+      </c>
+      <c r="E214" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F214" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G214" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H214" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="215" spans="4:8">
+      <c r="D215">
+        <v>951569258</v>
+      </c>
+      <c r="E215" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F215" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G215" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H215" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="216" spans="4:8">
+      <c r="D216">
+        <v>608325293</v>
+      </c>
+      <c r="E216" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F216" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G216" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H216" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="217" spans="4:8">
+      <c r="D217">
+        <v>280686584</v>
+      </c>
+      <c r="E217" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F217" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G217" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H217" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="218" spans="4:8">
+      <c r="D218">
+        <v>146622123</v>
+      </c>
+      <c r="E218" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F218" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G218" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H218" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="219" spans="4:8">
+      <c r="D219">
+        <v>949335545</v>
+      </c>
+      <c r="E219" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F219" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G219" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H219" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="220" spans="4:8">
+      <c r="D220">
+        <v>756657836</v>
+      </c>
+      <c r="E220" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F220" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G220" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H220" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="221" spans="4:8">
+      <c r="D221">
+        <v>301107853</v>
+      </c>
+      <c r="E221" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F221" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G221" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H221" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="222" spans="4:8">
+      <c r="D222">
+        <v>837452559</v>
+      </c>
+      <c r="E222" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F222" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G222" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H222" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="223" spans="4:8">
+      <c r="D223">
+        <v>365730428</v>
+      </c>
+      <c r="E223" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F223" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G223" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H223" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="224" spans="4:8">
+      <c r="D224">
+        <v>739694887</v>
+      </c>
+      <c r="E224" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F224" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G224" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H224" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="225" spans="4:8">
+      <c r="D225">
+        <v>130947527</v>
+      </c>
+      <c r="E225" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F225" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G225" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H225" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="226" spans="4:8">
+      <c r="D226">
+        <v>499590524</v>
+      </c>
+      <c r="E226" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F226" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G226" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H226" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="227" spans="4:8">
+      <c r="D227">
+        <v>233482760</v>
+      </c>
+      <c r="E227" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F227" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G227" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H227" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="228" spans="4:8">
+      <c r="D228">
+        <v>821840006</v>
+      </c>
+      <c r="E228" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F228" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G228" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H228" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="229" spans="4:8">
+      <c r="D229">
+        <v>854704841</v>
+      </c>
+      <c r="E229" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F229" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G229" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H229" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="230" spans="4:8">
+      <c r="D230">
+        <v>848155710</v>
+      </c>
+      <c r="E230" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F230" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G230" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H230" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="231" spans="4:8">
+      <c r="D231">
+        <v>170620054</v>
+      </c>
+      <c r="E231" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F231" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G231" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H231" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="232" spans="4:8">
+      <c r="D232">
+        <v>470759914</v>
+      </c>
+      <c r="E232" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F232" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G232" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H232" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="233" spans="4:8">
+      <c r="D233">
+        <v>186016184</v>
+      </c>
+      <c r="E233" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F233" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G233" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H233" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="234" spans="4:8">
+      <c r="D234">
+        <v>619831964</v>
+      </c>
+      <c r="E234" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F234" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G234" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H234" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="235" spans="4:8">
+      <c r="D235">
+        <v>409471753</v>
+      </c>
+      <c r="E235" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F235" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G235" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H235" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="236" spans="4:8">
+      <c r="D236">
+        <v>187342133</v>
+      </c>
+      <c r="E236" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F236" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G236" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H236" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="237" spans="4:8">
+      <c r="D237">
+        <v>419464984</v>
+      </c>
+      <c r="E237" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F237" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G237" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H237" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="238" spans="4:8">
+      <c r="D238">
+        <v>136905753</v>
+      </c>
+      <c r="E238" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F238" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G238" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H238" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="239" spans="4:8">
+      <c r="D239">
+        <v>729553560</v>
+      </c>
+      <c r="E239" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F239" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G239" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H239" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="240" spans="4:8">
+      <c r="D240">
+        <v>348931673</v>
+      </c>
+      <c r="E240" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F240" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G240" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H240" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="241" spans="4:8">
+      <c r="D241">
+        <v>378870483</v>
+      </c>
+      <c r="E241" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F241" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G241" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H241" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="242" spans="4:8">
+      <c r="D242">
+        <v>334662807</v>
+      </c>
+      <c r="E242" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F242" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G242" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H242" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="243" spans="4:8">
+      <c r="D243">
+        <v>305003208</v>
+      </c>
+      <c r="E243" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F243" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G243" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H243" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="244" spans="4:8">
+      <c r="D244">
+        <v>408863332</v>
+      </c>
+      <c r="E244" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F244" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G244" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H244" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="245" spans="4:8">
+      <c r="D245">
+        <v>118272525</v>
+      </c>
+      <c r="E245" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F245" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G245" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H245" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="246" spans="4:8">
+      <c r="D246">
+        <v>525380992</v>
+      </c>
+      <c r="E246" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F246" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G246" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H246" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="247" spans="4:8">
+      <c r="D247">
+        <v>248439657</v>
+      </c>
+      <c r="E247" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F247" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G247" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H247" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="248" spans="4:8">
+      <c r="D248">
+        <v>224828345</v>
+      </c>
+      <c r="E248" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F248" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G248" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H248" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="249" spans="4:8">
+      <c r="D249">
+        <v>658922524</v>
+      </c>
+      <c r="E249" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F249" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G249" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H249" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="250" spans="4:8">
+      <c r="D250">
+        <v>772727578</v>
+      </c>
+      <c r="E250" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F250" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G250" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H250" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="251" spans="4:8">
+      <c r="D251">
+        <v>969563910</v>
+      </c>
+      <c r="E251" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F251" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G251" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H251" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="252" spans="4:8">
+      <c r="D252">
+        <v>699488244</v>
+      </c>
+      <c r="E252" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F252" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G252" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H252" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="253" spans="4:8">
+      <c r="D253">
+        <v>550088325</v>
+      </c>
+      <c r="E253" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F253" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G253" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H253" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="254" spans="4:8">
+      <c r="D254">
+        <v>468131293</v>
+      </c>
+      <c r="E254" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F254" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G254" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H254" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="255" spans="4:8">
+      <c r="D255">
+        <v>546618460</v>
+      </c>
+      <c r="E255" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F255" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G255" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H255" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="256" spans="4:8">
+      <c r="D256">
+        <v>545664191</v>
+      </c>
+      <c r="E256" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F256" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G256" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H256" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="257" spans="4:8">
+      <c r="D257">
+        <v>731551032</v>
+      </c>
+      <c r="E257" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F257" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G257" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H257" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="258" spans="4:8">
+      <c r="D258">
+        <v>545843618</v>
+      </c>
+      <c r="E258" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F258" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G258" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H258" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="259" spans="4:8">
+      <c r="D259">
+        <v>479644481</v>
+      </c>
+      <c r="E259" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F259" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G259" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H259" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="260" spans="4:8">
+      <c r="D260">
+        <v>603531849</v>
+      </c>
+      <c r="E260" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F260" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G260" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H260" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="261" spans="4:8">
+      <c r="D261">
+        <v>376069912</v>
+      </c>
+      <c r="E261" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F261" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G261" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H261" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="262" spans="4:8">
+      <c r="D262">
+        <v>947750198</v>
+      </c>
+      <c r="E262" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F262" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G262" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H262" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="263" spans="4:8">
+      <c r="D263">
+        <v>718199636</v>
+      </c>
+      <c r="E263" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F263" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G263" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H263" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="264" spans="4:8">
+      <c r="D264">
+        <v>807534481</v>
+      </c>
+      <c r="E264" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F264" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G264" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H264" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="265" spans="4:8">
+      <c r="D265">
+        <v>211753630</v>
+      </c>
+      <c r="E265" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F265" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G265" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H265" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="266" spans="4:8">
+      <c r="D266">
+        <v>686479532</v>
+      </c>
+      <c r="E266" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F266" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G266" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H266" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="267" spans="4:8">
+      <c r="D267">
+        <v>164694718</v>
+      </c>
+      <c r="E267" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F267" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G267" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H267" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="268" spans="4:8">
+      <c r="D268">
+        <v>623566183</v>
+      </c>
+      <c r="E268" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F268" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G268" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H268" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="269" spans="4:8">
+      <c r="D269">
+        <v>824855614</v>
+      </c>
+      <c r="E269" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F269" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G269" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H269" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="270" spans="4:8">
+      <c r="D270">
+        <v>415020755</v>
+      </c>
+      <c r="E270" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F270" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G270" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H270" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="271" spans="4:8">
+      <c r="D271">
+        <v>717689436</v>
+      </c>
+      <c r="E271" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F271" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G271" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H271" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="272" spans="4:8">
+      <c r="D272">
+        <v>730214368</v>
+      </c>
+      <c r="E272" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F272" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G272" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H272" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="273" spans="4:8">
+      <c r="D273">
+        <v>586656176</v>
+      </c>
+      <c r="E273" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F273" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G273" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H273" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="274" spans="4:8">
+      <c r="D274">
+        <v>930538892</v>
+      </c>
+      <c r="E274" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F274" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G274" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H274" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="275" spans="4:8">
+      <c r="D275">
+        <v>772627632</v>
+      </c>
+      <c r="E275" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F275" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G275" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H275" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="276" spans="4:8">
+      <c r="D276">
+        <v>838088898</v>
+      </c>
+      <c r="E276" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F276" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G276" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H276" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="277" spans="4:8">
+      <c r="D277">
+        <v>600266113</v>
+      </c>
+      <c r="E277" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F277" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G277" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H277" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="278" spans="4:8">
+      <c r="D278">
+        <v>245028798</v>
+      </c>
+      <c r="E278" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F278" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G278" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H278" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="279" spans="4:8">
+      <c r="D279">
+        <v>205592184</v>
+      </c>
+      <c r="E279" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F279" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G279" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H279" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="280" spans="4:8">
+      <c r="D280">
+        <v>352508329</v>
+      </c>
+      <c r="E280" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F280" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G280" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H280" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="281" spans="4:8">
+      <c r="D281">
+        <v>464692165</v>
+      </c>
+      <c r="E281" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F281" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G281" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H281" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="282" spans="4:8">
+      <c r="D282">
+        <v>627025385</v>
+      </c>
+      <c r="E282" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F282" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G282" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H282" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="283" spans="4:8">
+      <c r="D283">
+        <v>261868283</v>
+      </c>
+      <c r="E283" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F283" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G283" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H283" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="284" spans="4:8">
+      <c r="D284">
+        <v>895822143</v>
+      </c>
+      <c r="E284" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F284" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G284" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H284" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="285" spans="4:8">
+      <c r="D285">
+        <v>507844322</v>
+      </c>
+      <c r="E285" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F285" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G285" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H285" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="286" spans="4:8">
+      <c r="D286">
+        <v>552738390</v>
+      </c>
+      <c r="E286" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F286" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G286" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H286" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="287" spans="4:8">
+      <c r="D287">
+        <v>188218078</v>
+      </c>
+      <c r="E287" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F287" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G287" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H287" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="288" spans="4:8">
+      <c r="D288">
+        <v>606461633</v>
+      </c>
+      <c r="E288" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F288" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G288" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H288" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="289" spans="4:8">
+      <c r="D289">
+        <v>767063176</v>
+      </c>
+      <c r="E289" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F289" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G289" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H289" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="290" spans="4:8">
+      <c r="D290">
+        <v>724718630</v>
+      </c>
+      <c r="E290" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F290" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G290" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H290" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="291" spans="4:8">
+      <c r="D291">
+        <v>986904094</v>
+      </c>
+      <c r="E291" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F291" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G291" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H291" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="292" spans="4:8">
+      <c r="D292">
+        <v>483626824</v>
+      </c>
+      <c r="E292" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F292" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G292" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H292" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="293" spans="4:8">
+      <c r="D293">
+        <v>387560929</v>
+      </c>
+      <c r="E293" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F293" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G293" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H293" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="294" spans="4:8">
+      <c r="D294">
+        <v>211882536</v>
+      </c>
+      <c r="E294" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F294" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G294" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H294" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="295" spans="4:8">
+      <c r="D295">
+        <v>961622876</v>
+      </c>
+      <c r="E295" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F295" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G295" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H295" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="296" spans="4:8">
+      <c r="D296">
+        <v>303859180</v>
+      </c>
+      <c r="E296" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F296" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G296" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H296" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="297" spans="4:8">
+      <c r="D297">
+        <v>513422186</v>
+      </c>
+      <c r="E297" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F297" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G297" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H297" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="298" spans="4:8">
+      <c r="D298">
+        <v>706117970</v>
+      </c>
+      <c r="E298" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F298" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G298" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H298" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="299" spans="4:8">
+      <c r="D299">
+        <v>327238753</v>
+      </c>
+      <c r="E299" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F299" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G299" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H299" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="300" spans="4:8">
+      <c r="D300">
+        <v>789233104</v>
+      </c>
+      <c r="E300" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F300" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G300" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H300" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="301" spans="4:8">
+      <c r="D301">
+        <v>972321099</v>
+      </c>
+      <c r="E301" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F301" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G301" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H301" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="302" spans="4:8">
+      <c r="D302">
+        <v>441704482</v>
+      </c>
+      <c r="E302" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F302" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G302" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H302" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="303" spans="4:8">
+      <c r="D303">
+        <v>564616622</v>
+      </c>
+      <c r="E303" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F303" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G303" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H303" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="304" spans="4:8">
+      <c r="D304">
+        <v>527108674</v>
+      </c>
+      <c r="E304" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F304" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G304" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H304" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="305" spans="4:8">
+      <c r="D305">
+        <v>241727096</v>
+      </c>
+      <c r="E305" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F305" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G305" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H305" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="306" spans="4:8">
+      <c r="D306">
+        <v>600217189</v>
+      </c>
+      <c r="E306" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F306" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G306" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H306" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="307" spans="4:8">
+      <c r="D307">
+        <v>144639655</v>
+      </c>
+      <c r="E307" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F307" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G307" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H307" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="308" spans="4:8">
+      <c r="D308">
+        <v>564104543</v>
+      </c>
+      <c r="E308" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F308" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G308" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H308" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="309" spans="4:8">
+      <c r="D309">
+        <v>202324620</v>
+      </c>
+      <c r="E309" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F309" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G309" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H309" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="310" spans="4:8">
+      <c r="D310">
+        <v>365535325</v>
+      </c>
+      <c r="E310" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F310" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G310" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H310" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="311" spans="4:8">
+      <c r="D311">
+        <v>765329647</v>
+      </c>
+      <c r="E311" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F311" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G311" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H311" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="312" spans="4:8">
+      <c r="D312">
+        <v>464791121</v>
+      </c>
+      <c r="E312" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F312" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G312" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H312" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="313" spans="4:8">
+      <c r="D313">
+        <v>241152118</v>
+      </c>
+      <c r="E313" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F313" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G313" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H313" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="314" spans="4:8">
+      <c r="D314">
+        <v>503362416</v>
+      </c>
+      <c r="E314" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F314" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G314" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H314" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="315" spans="4:8">
+      <c r="D315">
+        <v>862036609</v>
+      </c>
+      <c r="E315" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F315" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G315" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H315" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="316" spans="4:8">
+      <c r="D316">
+        <v>797463244</v>
+      </c>
+      <c r="E316" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F316" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G316" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H316" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="317" spans="4:8">
+      <c r="D317">
+        <v>646045982</v>
+      </c>
+      <c r="E317" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F317" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G317" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H317" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="318" spans="4:8">
+      <c r="D318">
+        <v>348098831</v>
+      </c>
+      <c r="E318" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F318" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G318" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H318" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="319" spans="4:8">
+      <c r="D319">
+        <v>884604579</v>
+      </c>
+      <c r="E319" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F319" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G319" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H319" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="320" spans="4:8">
+      <c r="D320">
+        <v>648515232</v>
+      </c>
+      <c r="E320" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F320" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G320" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H320" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="321" spans="4:8">
+      <c r="D321">
+        <v>868595355</v>
+      </c>
+      <c r="E321" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F321" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G321" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H321" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="322" spans="4:8">
+      <c r="D322">
+        <v>473423665</v>
+      </c>
+      <c r="E322" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F322" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G322" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H322" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="323" spans="4:8">
+      <c r="D323">
+        <v>113307054</v>
+      </c>
+      <c r="E323" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F323" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G323" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H323" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="324" spans="4:8">
+      <c r="D324">
+        <v>900246132</v>
+      </c>
+      <c r="E324" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F324" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G324" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H324" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="325" spans="4:8">
+      <c r="D325">
+        <v>544947919</v>
+      </c>
+      <c r="E325" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F325" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G325" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H325" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="326" spans="4:8">
+      <c r="D326">
+        <v>259323257</v>
+      </c>
+      <c r="E326" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F326" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G326" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H326" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="327" spans="4:8">
+      <c r="D327">
+        <v>595857042</v>
+      </c>
+      <c r="E327" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F327" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G327" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H327" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="328" spans="4:8">
+      <c r="D328">
+        <v>254829058</v>
+      </c>
+      <c r="E328" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F328" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G328" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H328" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="329" spans="4:8">
+      <c r="D329">
+        <v>937637984</v>
+      </c>
+      <c r="E329" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F329" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G329" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H329" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="330" spans="4:8">
+      <c r="D330">
+        <v>572868170</v>
+      </c>
+      <c r="E330" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F330" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G330" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H330" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="331" spans="4:8">
+      <c r="D331">
+        <v>979478060</v>
+      </c>
+      <c r="E331" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F331" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G331" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H331" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="332" spans="4:8">
+      <c r="D332">
+        <v>369078697</v>
+      </c>
+      <c r="E332" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F332" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G332" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H332" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="333" spans="4:8">
+      <c r="D333">
+        <v>319635035</v>
+      </c>
+      <c r="E333" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F333" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G333" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H333" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="334" spans="4:8">
+      <c r="D334">
+        <v>366733969</v>
+      </c>
+      <c r="E334" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F334" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G334" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H334" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="335" spans="4:8">
+      <c r="D335">
+        <v>180784851</v>
+      </c>
+      <c r="E335" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F335" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G335" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H335" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="336" spans="4:8">
+      <c r="D336">
+        <v>758114184</v>
+      </c>
+      <c r="E336" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F336" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G336" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H336" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="337" spans="4:8">
+      <c r="D337">
+        <v>912363783</v>
+      </c>
+      <c r="E337" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F337" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G337" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H337" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="338" spans="4:8">
+      <c r="D338">
+        <v>946319876</v>
+      </c>
+      <c r="E338" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F338" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G338" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H338" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="339" spans="4:8">
+      <c r="D339">
+        <v>269655601</v>
+      </c>
+      <c r="E339" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F339" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G339" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H339" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="340" spans="4:8">
+      <c r="D340">
+        <v>524006729</v>
+      </c>
+      <c r="E340" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F340" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G340" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H340" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="341" spans="4:8">
+      <c r="D341">
+        <v>252651336</v>
+      </c>
+      <c r="E341" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F341" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G341" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H341" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="342" spans="4:8">
+      <c r="D342">
+        <v>318765174</v>
+      </c>
+      <c r="E342" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F342" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G342" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H342" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="343" spans="4:8">
+      <c r="D343">
+        <v>452667359</v>
+      </c>
+      <c r="E343" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F343" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G343" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H343" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="344" spans="4:8">
+      <c r="D344">
+        <v>113366994</v>
+      </c>
+      <c r="E344" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F344" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G344" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H344" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="345" spans="4:8">
+      <c r="D345">
+        <v>449887159</v>
+      </c>
+      <c r="E345" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F345" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G345" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H345" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="346" spans="4:8">
+      <c r="D346">
+        <v>324354970</v>
+      </c>
+      <c r="E346" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F346" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G346" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H346" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="347" spans="4:8">
+      <c r="D347">
+        <v>433263990</v>
+      </c>
+      <c r="E347" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F347" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G347" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H347" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="348" spans="4:8">
+      <c r="D348">
+        <v>398050391</v>
+      </c>
+      <c r="E348" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F348" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G348" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H348" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="349" spans="4:8">
+      <c r="D349">
+        <v>227637058</v>
+      </c>
+      <c r="E349" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F349" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G349" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H349" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="350" spans="4:8">
+      <c r="D350">
+        <v>811821223</v>
+      </c>
+      <c r="E350" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F350" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G350" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H350" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="351" spans="4:8">
+      <c r="D351">
+        <v>142271779</v>
+      </c>
+      <c r="E351" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F351" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G351" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H351" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="352" spans="4:8">
+      <c r="D352">
+        <v>304926441</v>
+      </c>
+      <c r="E352" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F352" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G352" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H352" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="353" spans="4:8">
+      <c r="D353">
+        <v>182785146</v>
+      </c>
+      <c r="E353" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F353" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G353" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H353" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="354" spans="4:8">
+      <c r="D354">
+        <v>745375837</v>
+      </c>
+      <c r="E354" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F354" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G354" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H354" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="355" spans="4:8">
+      <c r="D355">
+        <v>723890419</v>
+      </c>
+      <c r="E355" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F355" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G355" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H355" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="356" spans="4:8">
+      <c r="D356">
+        <v>301974424</v>
+      </c>
+      <c r="E356" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F356" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G356" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H356" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="357" spans="4:8">
+      <c r="D357">
+        <v>328976626</v>
+      </c>
+      <c r="E357" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F357" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G357" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H357" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="358" spans="4:8">
+      <c r="D358">
+        <v>475614568</v>
+      </c>
+      <c r="E358" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F358" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G358" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H358" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="359" spans="4:8">
+      <c r="D359">
+        <v>957257347</v>
+      </c>
+      <c r="E359" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F359" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G359" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H359" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="360" spans="4:8">
+      <c r="D360">
+        <v>801367475</v>
+      </c>
+      <c r="E360" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F360" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G360" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H360" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="361" spans="4:8">
+      <c r="D361">
+        <v>386621044</v>
+      </c>
+      <c r="E361" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F361" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G361" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H361" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="362" spans="4:8">
+      <c r="D362">
+        <v>652652823</v>
+      </c>
+      <c r="E362" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F362" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G362" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H362" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="363" spans="4:8">
+      <c r="D363">
+        <v>547110702</v>
+      </c>
+      <c r="E363" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F363" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G363" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H363" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="364" spans="4:8">
+      <c r="D364">
+        <v>632358846</v>
+      </c>
+      <c r="E364" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F364" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G364" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H364" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="365" spans="4:8">
+      <c r="D365">
+        <v>236620717</v>
+      </c>
+      <c r="E365" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F365" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G365" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H365" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="366" spans="4:8">
+      <c r="D366">
+        <v>214167695</v>
+      </c>
+      <c r="E366" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F366" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G366" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H366" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="367" spans="4:8">
+      <c r="D367">
+        <v>479511161</v>
+      </c>
+      <c r="E367" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F367" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G367" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H367" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="368" spans="4:8">
+      <c r="D368">
+        <v>135935846</v>
+      </c>
+      <c r="E368" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F368" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G368" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H368" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="369" spans="4:8">
+      <c r="D369">
+        <v>719907119</v>
+      </c>
+      <c r="E369" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F369" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G369" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H369" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="370" spans="4:8">
+      <c r="D370">
+        <v>847293994</v>
+      </c>
+      <c r="E370" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F370" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G370" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H370" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="371" spans="4:8">
+      <c r="D371">
+        <v>728282013</v>
+      </c>
+      <c r="E371" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F371" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G371" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H371" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="372" spans="4:8">
+      <c r="D372">
+        <v>447889609</v>
+      </c>
+      <c r="E372" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F372" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G372" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H372" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="373" spans="4:8">
+      <c r="D373">
+        <v>657193404</v>
+      </c>
+      <c r="E373" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F373" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G373" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H373" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="374" spans="4:8">
+      <c r="D374">
+        <v>194502456</v>
+      </c>
+      <c r="E374" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F374" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G374" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H374" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="375" spans="4:8">
+      <c r="D375">
+        <v>460564773</v>
+      </c>
+      <c r="E375" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F375" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G375" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H375" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="376" spans="4:8">
+      <c r="D376">
+        <v>709468734</v>
+      </c>
+      <c r="E376" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F376" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G376" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H376" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="377" spans="4:8">
+      <c r="D377">
+        <v>758890129</v>
+      </c>
+      <c r="E377" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F377" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G377" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H377" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="378" spans="4:8">
+      <c r="D378">
+        <v>209142135</v>
+      </c>
+      <c r="E378" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F378" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G378" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H378" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="379" spans="4:8">
+      <c r="D379">
+        <v>280837706</v>
+      </c>
+      <c r="E379" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F379" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G379" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H379" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="380" spans="4:8">
+      <c r="D380">
+        <v>202029752</v>
+      </c>
+      <c r="E380" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F380" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G380" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H380" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="381" spans="4:8">
+      <c r="D381">
+        <v>582758130</v>
+      </c>
+      <c r="E381" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F381" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G381" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H381" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="382" spans="4:8">
+      <c r="D382">
+        <v>139245895</v>
+      </c>
+      <c r="E382" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F382" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G382" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H382" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="383" spans="4:8">
+      <c r="D383">
+        <v>993041353</v>
+      </c>
+      <c r="E383" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F383" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G383" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H383" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="384" spans="4:8">
+      <c r="D384">
+        <v>546969936</v>
+      </c>
+      <c r="E384" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F384" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G384" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H384" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="385" spans="4:8">
+      <c r="D385">
+        <v>976003461</v>
+      </c>
+      <c r="E385" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F385" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G385" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H385" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="386" spans="4:8">
+      <c r="D386">
+        <v>396184563</v>
+      </c>
+      <c r="E386" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F386" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G386" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H386" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="387" spans="4:8">
+      <c r="D387">
+        <v>503033215</v>
+      </c>
+      <c r="E387" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F387" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G387" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H387" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="388" spans="4:8">
+      <c r="D388">
+        <v>694436763</v>
+      </c>
+      <c r="E388" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F388" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G388" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H388" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="389" spans="4:8">
+      <c r="D389">
+        <v>487948592</v>
+      </c>
+      <c r="E389" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F389" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G389" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H389" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="390" spans="4:8">
+      <c r="D390">
+        <v>316964435</v>
+      </c>
+      <c r="E390" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F390" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G390" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H390" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="391" spans="4:8">
+      <c r="D391">
+        <v>112643012</v>
+      </c>
+      <c r="E391" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F391" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G391" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H391" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="392" spans="4:8">
+      <c r="D392">
+        <v>783478639</v>
+      </c>
+      <c r="E392" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F392" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G392" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H392" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="393" spans="4:8">
+      <c r="D393">
+        <v>112474813</v>
+      </c>
+      <c r="E393" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F393" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G393" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H393" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="394" spans="4:8">
+      <c r="D394">
+        <v>510439282</v>
+      </c>
+      <c r="E394" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F394" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G394" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H394" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="395" spans="4:8">
+      <c r="D395">
+        <v>603953010</v>
+      </c>
+      <c r="E395" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F395" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G395" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H395" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="396" spans="4:8">
+      <c r="D396">
+        <v>897321276</v>
+      </c>
+      <c r="E396" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F396" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G396" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H396" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="397" spans="4:8">
+      <c r="D397">
+        <v>731581803</v>
+      </c>
+      <c r="E397" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F397" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G397" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H397" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="398" spans="4:8">
+      <c r="D398">
+        <v>186214004</v>
+      </c>
+      <c r="E398" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F398" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G398" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H398" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="399" spans="4:8">
+      <c r="D399">
+        <v>470559090</v>
+      </c>
+      <c r="E399" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F399" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G399" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H399" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="400" spans="4:8">
+      <c r="D400">
+        <v>832010071</v>
+      </c>
+      <c r="E400" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F400" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G400" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H400" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="401" spans="4:8">
+      <c r="D401">
+        <v>343479477</v>
+      </c>
+      <c r="E401" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F401" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G401" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H401" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="402" spans="4:8">
+      <c r="D402">
+        <v>999445433</v>
+      </c>
+      <c r="E402" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F402" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G402" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H402" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="403" spans="4:8">
+      <c r="D403">
+        <v>448840693</v>
+      </c>
+      <c r="E403" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F403" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G403" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H403" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="404" spans="4:8">
+      <c r="D404">
+        <v>970354165</v>
+      </c>
+      <c r="E404" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F404" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G404" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H404" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="405" spans="4:8">
+      <c r="D405">
+        <v>195890354</v>
+      </c>
+      <c r="E405" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F405" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G405" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H405" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="406" spans="4:8">
+      <c r="D406">
+        <v>270893954</v>
+      </c>
+      <c r="E406" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F406" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G406" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H406" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="407" spans="4:8">
+      <c r="D407">
+        <v>269878493</v>
+      </c>
+      <c r="E407" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F407" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G407" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H407" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="408" spans="4:8">
+      <c r="D408">
+        <v>244807233</v>
+      </c>
+      <c r="E408" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F408" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G408" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H408" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="409" spans="4:8">
+      <c r="D409">
+        <v>808778151</v>
+      </c>
+      <c r="E409" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F409" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G409" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H409" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="410" spans="4:8">
+      <c r="D410">
+        <v>867122195</v>
+      </c>
+      <c r="E410" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F410" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G410" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H410" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="411" spans="4:8">
+      <c r="D411">
+        <v>507716504</v>
+      </c>
+      <c r="E411" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F411" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G411" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H411" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="412" spans="4:8">
+      <c r="D412">
+        <v>199409094</v>
+      </c>
+      <c r="E412" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F412" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G412" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H412" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="413" spans="4:8">
+      <c r="D413">
+        <v>463307452</v>
+      </c>
+      <c r="E413" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F413" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G413" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H413" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="414" spans="4:8">
+      <c r="D414">
+        <v>299385182</v>
+      </c>
+      <c r="E414" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F414" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G414" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H414" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="415" spans="4:8">
+      <c r="D415">
+        <v>898322127</v>
+      </c>
+      <c r="E415" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F415" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G415" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H415" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="416" spans="4:8">
+      <c r="D416">
+        <v>661677653</v>
+      </c>
+      <c r="E416" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F416" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G416" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H416" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="417" spans="4:8">
+      <c r="D417">
+        <v>785554359</v>
+      </c>
+      <c r="E417" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F417" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G417" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H417" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="418" spans="4:8">
+      <c r="D418">
+        <v>129294833</v>
+      </c>
+      <c r="E418" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F418" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G418" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H418" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="419" spans="4:8">
+      <c r="D419">
+        <v>824416455</v>
+      </c>
+      <c r="E419" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F419" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G419" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H419" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="420" spans="4:8">
+      <c r="D420">
+        <v>563323542</v>
+      </c>
+      <c r="E420" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F420" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G420" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H420" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="421" spans="4:8">
+      <c r="D421">
+        <v>517635551</v>
+      </c>
+      <c r="E421" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F421" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G421" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H421" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="422" spans="4:8">
+      <c r="D422">
+        <v>285599449</v>
+      </c>
+      <c r="E422" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F422" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G422" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H422" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="423" spans="4:8">
+      <c r="D423">
+        <v>816890104</v>
+      </c>
+      <c r="E423" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F423" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G423" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H423" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="424" spans="4:8">
+      <c r="D424">
+        <v>732876202</v>
+      </c>
+      <c r="E424" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F424" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G424" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H424" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="425" spans="4:8">
+      <c r="D425">
+        <v>839659993</v>
+      </c>
+      <c r="E425" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F425" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G425" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H425" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="426" spans="4:8">
+      <c r="D426">
+        <v>333045292</v>
+      </c>
+      <c r="E426" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F426" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G426" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H426" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="427" spans="4:8">
+      <c r="D427">
+        <v>410837326</v>
+      </c>
+      <c r="E427" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F427" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G427" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H427" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="428" spans="4:8">
+      <c r="D428">
+        <v>312048108</v>
+      </c>
+      <c r="E428" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F428" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G428" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H428" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="429" spans="4:8">
+      <c r="D429">
+        <v>406349862</v>
+      </c>
+      <c r="E429" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F429" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G429" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H429" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="430" spans="4:8">
+      <c r="D430">
+        <v>295039653</v>
+      </c>
+      <c r="E430" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F430" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G430" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H430" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="431" spans="4:8">
+      <c r="D431">
+        <v>937612249</v>
+      </c>
+      <c r="E431" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F431" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G431" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H431" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="432" spans="4:8">
+      <c r="D432">
+        <v>219226329</v>
+      </c>
+      <c r="E432" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F432" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G432" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H432" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="433" spans="4:8">
+      <c r="D433">
+        <v>784724822</v>
+      </c>
+      <c r="E433" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F433" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G433" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H433" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="434" spans="4:8">
+      <c r="D434">
+        <v>346709605</v>
+      </c>
+      <c r="E434" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F434" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G434" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H434" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="435" spans="4:8">
+      <c r="D435">
+        <v>257627432</v>
+      </c>
+      <c r="E435" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F435" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G435" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H435" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="436" spans="4:8">
+      <c r="D436">
+        <v>159194496</v>
+      </c>
+      <c r="E436" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F436" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G436" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H436" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="437" spans="4:8">
+      <c r="D437">
+        <v>423976053</v>
+      </c>
+      <c r="E437" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F437" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G437" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H437" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="438" spans="4:8">
+      <c r="D438">
+        <v>397870567</v>
+      </c>
+      <c r="E438" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F438" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G438" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H438" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="439" spans="4:8">
+      <c r="D439">
+        <v>725830283</v>
+      </c>
+      <c r="E439" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F439" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G439" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H439" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="440" spans="4:8">
+      <c r="D440">
+        <v>886016071</v>
+      </c>
+      <c r="E440" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F440" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G440" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H440" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="441" spans="4:8">
+      <c r="D441">
+        <v>812953896</v>
+      </c>
+      <c r="E441" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F441" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G441" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H441" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="442" spans="4:8">
+      <c r="D442">
+        <v>855486392</v>
+      </c>
+      <c r="E442" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F442" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G442" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H442" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="443" spans="4:8">
+      <c r="D443">
+        <v>649994547</v>
+      </c>
+      <c r="E443" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F443" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G443" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H443" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="444" spans="4:8">
+      <c r="D444">
+        <v>450251074</v>
+      </c>
+      <c r="E444" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F444" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G444" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H444" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="445" spans="4:8">
+      <c r="D445">
+        <v>681422849</v>
+      </c>
+      <c r="E445" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F445" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G445" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H445" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="446" spans="4:8">
+      <c r="D446">
+        <v>137802440</v>
+      </c>
+      <c r="E446" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F446" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G446" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H446" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="447" spans="4:8">
+      <c r="D447">
+        <v>166496390</v>
+      </c>
+      <c r="E447" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F447" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G447" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H447" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="448" spans="4:8">
+      <c r="D448">
+        <v>365057820</v>
+      </c>
+      <c r="E448" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F448" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G448" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H448" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="449" spans="4:8">
+      <c r="D449">
+        <v>973661645</v>
+      </c>
+      <c r="E449" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F449" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G449" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H449" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="450" spans="4:8">
+      <c r="D450">
+        <v>242338639</v>
+      </c>
+      <c r="E450" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F450" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G450" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H450" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="451" spans="4:8">
+      <c r="D451">
+        <v>888957923</v>
+      </c>
+      <c r="E451" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F451" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G451" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H451" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="452" spans="4:8">
+      <c r="D452">
+        <v>319703386</v>
+      </c>
+      <c r="E452" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F452" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G452" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H452" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="453" spans="4:8">
+      <c r="D453">
+        <v>545401043</v>
+      </c>
+      <c r="E453" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F453" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G453" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H453" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="454" spans="4:8">
+      <c r="D454">
+        <v>578757469</v>
+      </c>
+      <c r="E454" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F454" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G454" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H454" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="455" spans="4:8">
+      <c r="D455">
+        <v>620817671</v>
+      </c>
+      <c r="E455" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F455" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G455" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H455" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="456" spans="4:8">
+      <c r="D456">
+        <v>154982648</v>
+      </c>
+      <c r="E456" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F456" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G456" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H456" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="457" spans="4:8">
+      <c r="D457">
+        <v>312251122</v>
+      </c>
+      <c r="E457" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F457" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G457" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H457" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="458" spans="4:8">
+      <c r="D458">
+        <v>586466134</v>
+      </c>
+      <c r="E458" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F458" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G458" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H458" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="459" spans="4:8">
+      <c r="D459">
+        <v>208602274</v>
+      </c>
+      <c r="E459" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F459" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G459" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H459" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="460" spans="4:8">
+      <c r="D460">
+        <v>293273926</v>
+      </c>
+      <c r="E460" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F460" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G460" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H460" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="461" spans="4:8">
+      <c r="D461">
+        <v>486109385</v>
+      </c>
+      <c r="E461" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F461" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G461" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H461" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="462" spans="4:8">
+      <c r="D462">
+        <v>910569647</v>
+      </c>
+      <c r="E462" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F462" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G462" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H462" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="463" spans="4:8">
+      <c r="D463">
+        <v>553508532</v>
+      </c>
+      <c r="E463" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F463" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G463" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H463" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="464" spans="4:8">
+      <c r="D464">
+        <v>963964596</v>
+      </c>
+      <c r="E464" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F464" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G464" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H464" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="465" spans="4:8">
+      <c r="D465">
+        <v>484678884</v>
+      </c>
+      <c r="E465" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F465" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G465" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H465" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="466" spans="4:8">
+      <c r="D466">
+        <v>117679771</v>
+      </c>
+      <c r="E466" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F466" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G466" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H466" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="467" spans="4:8">
+      <c r="D467">
+        <v>815166323</v>
+      </c>
+      <c r="E467" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F467" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G467" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H467" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="468" spans="4:8">
+      <c r="D468">
+        <v>975407423</v>
+      </c>
+      <c r="E468" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F468" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G468" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H468" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="469" spans="4:8">
+      <c r="D469">
+        <v>268958180</v>
+      </c>
+      <c r="E469" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F469" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G469" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H469" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="470" spans="4:8">
+      <c r="D470">
+        <v>584122291</v>
+      </c>
+      <c r="E470" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F470" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G470" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H470" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="471" spans="4:8">
+      <c r="D471">
+        <v>315827267</v>
+      </c>
+      <c r="E471" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F471" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G471" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H471" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="472" spans="4:8">
+      <c r="D472">
+        <v>737141593</v>
+      </c>
+      <c r="E472" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F472" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G472" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H472" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="473" spans="4:8">
+      <c r="D473">
+        <v>427465461</v>
+      </c>
+      <c r="E473" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F473" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G473" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H473" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="474" spans="4:8">
+      <c r="D474">
+        <v>119034016</v>
+      </c>
+      <c r="E474" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F474" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G474" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H474" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="475" spans="4:8">
+      <c r="D475">
+        <v>953941956</v>
+      </c>
+      <c r="E475" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F475" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G475" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H475" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="476" spans="4:8">
+      <c r="D476">
+        <v>422757526</v>
+      </c>
+      <c r="E476" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F476" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G476" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H476" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="477" spans="4:8">
+      <c r="D477">
+        <v>849210328</v>
+      </c>
+      <c r="E477" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F477" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G477" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H477" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="478" spans="4:8">
+      <c r="D478">
+        <v>733239543</v>
+      </c>
+      <c r="E478" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F478" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G478" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H478" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="479" spans="4:8">
+      <c r="D479">
+        <v>606479956</v>
+      </c>
+      <c r="E479" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F479" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G479" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H479" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="480" spans="4:8">
+      <c r="D480">
+        <v>775552575</v>
+      </c>
+      <c r="E480" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F480" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G480" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H480" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="481" spans="4:8">
+      <c r="D481">
+        <v>133000523</v>
+      </c>
+      <c r="E481" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F481" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G481" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H481" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="482" spans="4:8">
+      <c r="D482">
+        <v>704056437</v>
+      </c>
+      <c r="E482" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F482" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G482" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H482" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="483" spans="4:8">
+      <c r="D483">
+        <v>151480323</v>
+      </c>
+      <c r="E483" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F483" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G483" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H483" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="484" spans="4:8">
+      <c r="D484">
+        <v>576687470</v>
+      </c>
+      <c r="E484" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F484" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G484" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H484" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="485" spans="4:8">
+      <c r="D485">
+        <v>156013173</v>
+      </c>
+      <c r="E485" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F485" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G485" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H485" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="486" spans="4:8">
+      <c r="D486">
+        <v>708674240</v>
+      </c>
+      <c r="E486" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F486" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G486" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H486" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="487" spans="4:8">
+      <c r="D487">
+        <v>560843978</v>
+      </c>
+      <c r="E487" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F487" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G487" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H487" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="488" spans="4:8">
+      <c r="D488">
+        <v>853149450</v>
+      </c>
+      <c r="E488" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F488" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G488" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H488" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="489" spans="4:8">
+      <c r="D489">
+        <v>833498423</v>
+      </c>
+      <c r="E489" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F489" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G489" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H489" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="490" spans="4:8">
+      <c r="D490">
+        <v>140450318</v>
+      </c>
+      <c r="E490" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F490" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G490" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H490" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="491" spans="4:8">
+      <c r="D491">
+        <v>381985459</v>
+      </c>
+      <c r="E491" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F491" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G491" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H491" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="492" spans="4:8">
+      <c r="D492">
+        <v>828468456</v>
+      </c>
+      <c r="E492" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F492" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G492" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H492" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="493" spans="4:8">
+      <c r="D493">
+        <v>364028760</v>
+      </c>
+      <c r="E493" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F493" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G493" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H493" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="494" spans="4:8">
+      <c r="D494">
+        <v>186204802</v>
+      </c>
+      <c r="E494" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F494" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G494" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H494" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="495" spans="4:8">
+      <c r="D495">
+        <v>318549315</v>
+      </c>
+      <c r="E495" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F495" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G495" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H495" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="496" spans="4:8">
+      <c r="D496">
+        <v>846031847</v>
+      </c>
+      <c r="E496" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F496" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G496" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H496" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="497" spans="4:8">
+      <c r="D497">
+        <v>539653732</v>
+      </c>
+      <c r="E497" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F497" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G497" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H497" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="498" spans="4:8">
+      <c r="D498">
+        <v>822961125</v>
+      </c>
+      <c r="E498" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F498" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G498" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H498" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="499" spans="4:8">
+      <c r="D499">
+        <v>154781762</v>
+      </c>
+      <c r="E499" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F499" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G499" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H499" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="500" spans="4:8">
+      <c r="D500">
+        <v>402649929</v>
+      </c>
+      <c r="E500" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F500" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G500" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H500" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="501" spans="4:8">
+      <c r="D501">
+        <v>116715100</v>
+      </c>
+      <c r="E501" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F501" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G501" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H501" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="502" spans="4:8">
+      <c r="D502">
+        <v>600601732</v>
+      </c>
+      <c r="E502" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F502" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G502" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H502" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="503" spans="4:8">
+      <c r="D503">
+        <v>374199967</v>
+      </c>
+      <c r="E503" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F503" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G503" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H503" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="504" spans="4:8">
+      <c r="D504">
+        <v>491677962</v>
+      </c>
+      <c r="E504" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F504" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G504" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H504" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="505" spans="4:8">
+      <c r="D505">
+        <v>675230414</v>
+      </c>
+      <c r="E505" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F505" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G505" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H505" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="506" spans="4:8">
+      <c r="D506">
+        <v>350743483</v>
+      </c>
+      <c r="E506" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F506" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G506" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H506" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="507" spans="4:8">
+      <c r="D507">
+        <v>588561481</v>
+      </c>
+      <c r="E507" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F507" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G507" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H507" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="508" spans="4:8">
+      <c r="D508">
+        <v>950177850</v>
+      </c>
+      <c r="E508" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F508" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G508" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H508" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="509" spans="4:8">
+      <c r="D509">
+        <v>520974079</v>
+      </c>
+      <c r="E509" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F509" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G509" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H509" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="510" spans="4:8">
+      <c r="D510">
+        <v>689482225</v>
+      </c>
+      <c r="E510" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F510" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G510" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H510" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="511" spans="4:8">
+      <c r="D511">
+        <v>687805759</v>
+      </c>
+      <c r="E511" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F511" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G511" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H511" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="512" spans="4:8">
+      <c r="D512">
+        <v>188578219</v>
+      </c>
+      <c r="E512" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F512" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G512" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H512" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="513" spans="4:8">
+      <c r="D513">
+        <v>991889823</v>
+      </c>
+      <c r="E513" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F513" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G513" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H513" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="514" spans="4:8">
+      <c r="D514">
+        <v>211599494</v>
+      </c>
+      <c r="E514" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F514" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G514" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H514" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="515" spans="4:8">
+      <c r="D515">
+        <v>614131472</v>
+      </c>
+      <c r="E515" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F515" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G515" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H515" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="516" spans="4:8">
+      <c r="D516">
+        <v>697715684</v>
+      </c>
+      <c r="E516" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F516" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G516" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H516" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="517" spans="4:8">
+      <c r="D517">
+        <v>499059308</v>
+      </c>
+      <c r="E517" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F517" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G517" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H517" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="518" spans="4:8">
+      <c r="D518">
+        <v>767506561</v>
+      </c>
+      <c r="E518" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F518" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G518" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H518" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="519" spans="4:8">
+      <c r="D519">
+        <v>809774806</v>
+      </c>
+      <c r="E519" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F519" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G519" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H519" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="520" spans="4:8">
+      <c r="D520">
+        <v>358877415</v>
+      </c>
+      <c r="E520" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F520" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G520" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H520" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="521" spans="4:8">
+      <c r="D521">
+        <v>987229249</v>
+      </c>
+      <c r="E521" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F521" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G521" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H521" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="522" spans="4:8">
+      <c r="D522">
+        <v>624678765</v>
+      </c>
+      <c r="E522" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F522" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G522" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H522" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="523" spans="4:8">
+      <c r="D523">
+        <v>724562094</v>
+      </c>
+      <c r="E523" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F523" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G523" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H523" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="524" spans="4:8">
+      <c r="D524">
+        <v>786976264</v>
+      </c>
+      <c r="E524" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F524" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G524" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H524" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="525" spans="4:8">
+      <c r="D525">
+        <v>135025688</v>
+      </c>
+      <c r="E525" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F525" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G525" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H525" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="526" spans="4:8">
+      <c r="D526">
+        <v>629408981</v>
+      </c>
+      <c r="E526" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F526" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G526" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H526" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="527" spans="4:8">
+      <c r="D527">
+        <v>778400455</v>
+      </c>
+      <c r="E527" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F527" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G527" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H527" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="528" spans="4:8">
+      <c r="D528">
+        <v>307363560</v>
+      </c>
+      <c r="E528" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F528" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G528" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H528" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="529" spans="4:8">
+      <c r="D529">
+        <v>151673718</v>
+      </c>
+      <c r="E529" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F529" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G529" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H529" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="530" spans="4:8">
+      <c r="D530">
+        <v>237300936</v>
+      </c>
+      <c r="E530" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F530" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G530" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H530" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="531" spans="4:8">
+      <c r="D531">
+        <v>399975927</v>
+      </c>
+      <c r="E531" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F531" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G531" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H531" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="532" spans="4:8">
+      <c r="D532">
+        <v>241075626</v>
+      </c>
+      <c r="E532" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F532" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G532" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H532" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="533" spans="4:8">
+      <c r="D533">
+        <v>950854346</v>
+      </c>
+      <c r="E533" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F533" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G533" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H533" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="534" spans="4:8">
+      <c r="D534">
+        <v>536431686</v>
+      </c>
+      <c r="E534" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F534" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G534" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H534" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="535" spans="4:8">
+      <c r="D535">
+        <v>992843569</v>
+      </c>
+      <c r="E535" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F535" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G535" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H535" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="536" spans="4:8">
+      <c r="D536">
+        <v>829522314</v>
+      </c>
+      <c r="E536" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F536" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G536" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H536" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="537" spans="4:8">
+      <c r="D537">
+        <v>753640160</v>
+      </c>
+      <c r="E537" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F537" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G537" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H537" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="538" spans="4:8">
+      <c r="D538">
+        <v>692062267</v>
+      </c>
+      <c r="E538" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F538" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G538" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H538" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="539" spans="4:8">
+      <c r="D539">
+        <v>921653221</v>
+      </c>
+      <c r="E539" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F539" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G539" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H539" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="540" spans="4:8">
+      <c r="D540">
+        <v>474618441</v>
+      </c>
+      <c r="E540" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F540" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G540" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H540" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="541" spans="4:8">
+      <c r="D541">
+        <v>409880433</v>
+      </c>
+      <c r="E541" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F541" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G541" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H541" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="542" spans="4:8">
+      <c r="D542">
+        <v>381203810</v>
+      </c>
+      <c r="E542" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F542" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G542" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H542" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="543" spans="4:8">
+      <c r="D543">
+        <v>710362425</v>
+      </c>
+      <c r="E543" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F543" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G543" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H543" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="544" spans="4:8">
+      <c r="D544">
+        <v>201488647</v>
+      </c>
+      <c r="E544" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F544" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G544" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H544" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="545" spans="4:8">
+      <c r="D545">
+        <v>787987322</v>
+      </c>
+      <c r="E545" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F545" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G545" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H545" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="546" spans="4:8">
+      <c r="D546">
+        <v>519789398</v>
+      </c>
+      <c r="E546" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F546" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G546" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H546" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="547" spans="4:8">
+      <c r="D547">
+        <v>201731231</v>
+      </c>
+      <c r="E547" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F547" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G547" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H547" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="548" spans="4:8">
+      <c r="D548">
+        <v>381899206</v>
+      </c>
+      <c r="E548" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F548" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G548" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H548" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="549" spans="4:8">
+      <c r="D549">
+        <v>895181514</v>
+      </c>
+      <c r="E549" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F549" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G549" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H549" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="550" spans="4:8">
+      <c r="D550">
+        <v>182429456</v>
+      </c>
+      <c r="E550" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F550" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G550" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H550" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="551" spans="4:8">
+      <c r="D551">
+        <v>356287798</v>
+      </c>
+      <c r="E551" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F551" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G551" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H551" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="552" spans="4:8">
+      <c r="D552">
+        <v>467486222</v>
+      </c>
+      <c r="E552" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F552" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G552" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H552" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="553" spans="4:8">
+      <c r="D553">
+        <v>363016845</v>
+      </c>
+      <c r="E553" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F553" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G553" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H553" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="554" spans="4:8">
+      <c r="D554">
+        <v>449795482</v>
+      </c>
+      <c r="E554" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F554" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G554" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H554" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="555" spans="4:8">
+      <c r="D555">
+        <v>180776736</v>
+      </c>
+      <c r="E555" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F555" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G555" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H555" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="556" spans="4:8">
+      <c r="D556">
+        <v>948503130</v>
+      </c>
+      <c r="E556" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F556" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G556" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H556" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="557" spans="4:8">
+      <c r="D557">
+        <v>622816585</v>
+      </c>
+      <c r="E557" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F557" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G557" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H557" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="558" spans="4:8">
+      <c r="D558">
+        <v>740978750</v>
+      </c>
+      <c r="E558" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F558" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G558" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H558" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="559" spans="4:8">
+      <c r="D559">
+        <v>859722654</v>
+      </c>
+      <c r="E559" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F559" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G559" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H559" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="560" spans="4:8">
+      <c r="D560">
+        <v>457742646</v>
+      </c>
+      <c r="E560" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F560" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G560" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H560" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="561" spans="4:8">
+      <c r="D561">
+        <v>988571249</v>
+      </c>
+      <c r="E561" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F561" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G561" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H561" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="562" spans="4:8">
+      <c r="D562">
+        <v>706798683</v>
+      </c>
+      <c r="E562" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F562" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G562" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H562" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="563" spans="4:8">
+      <c r="D563">
+        <v>604692252</v>
+      </c>
+      <c r="E563" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F563" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G563" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H563" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="564" spans="4:8">
+      <c r="D564">
+        <v>997045411</v>
+      </c>
+      <c r="E564" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F564" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G564" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H564" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="565" spans="4:8">
+      <c r="D565">
+        <v>709454614</v>
+      </c>
+      <c r="E565" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F565" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G565" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H565" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="566" spans="4:8">
+      <c r="D566">
+        <v>337586116</v>
+      </c>
+      <c r="E566" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F566" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G566" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H566" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="567" spans="4:8">
+      <c r="D567">
+        <v>783753041</v>
+      </c>
+      <c r="E567" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F567" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G567" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H567" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="568" spans="4:8">
+      <c r="D568">
+        <v>264345661</v>
+      </c>
+      <c r="E568" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F568" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G568" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H568" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="569" spans="4:8">
+      <c r="D569">
+        <v>341852082</v>
+      </c>
+      <c r="E569" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F569" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G569" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H569" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="570" spans="4:8">
+      <c r="D570">
+        <v>433821585</v>
+      </c>
+      <c r="E570" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F570" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G570" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H570" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="571" spans="4:8">
+      <c r="D571">
+        <v>318702536</v>
+      </c>
+      <c r="E571" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F571" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G571" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H571" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="572" spans="4:8">
+      <c r="D572">
+        <v>265009746</v>
+      </c>
+      <c r="E572" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F572" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G572" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H572" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="573" spans="4:8">
+      <c r="D573">
+        <v>649965036</v>
+      </c>
+      <c r="E573" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F573" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G573" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H573" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="574" spans="4:8">
+      <c r="D574">
+        <v>701923841</v>
+      </c>
+      <c r="E574" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F574" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G574" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H574" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="575" spans="4:8">
+      <c r="D575">
+        <v>191948970</v>
+      </c>
+      <c r="E575" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F575" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G575" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H575" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="576" spans="4:8">
+      <c r="D576">
+        <v>829570045</v>
+      </c>
+      <c r="E576" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F576" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G576" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H576" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="577" spans="4:8">
+      <c r="D577">
+        <v>711265540</v>
+      </c>
+      <c r="E577" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F577" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G577" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H577" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="578" spans="4:8">
+      <c r="D578">
+        <v>399133406</v>
+      </c>
+      <c r="E578" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F578" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G578" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H578" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="579" spans="4:8">
+      <c r="D579">
+        <v>140060314</v>
+      </c>
+      <c r="E579" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F579" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G579" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H579" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="580" spans="4:8">
+      <c r="D580">
+        <v>596371586</v>
+      </c>
+      <c r="E580" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F580" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G580" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H580" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="581" spans="4:8">
+      <c r="D581">
+        <v>344218601</v>
+      </c>
+      <c r="E581" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F581" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G581" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H581" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="582" spans="4:8">
+      <c r="D582">
+        <v>341570873</v>
+      </c>
+      <c r="E582" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F582" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G582" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H582" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="583" spans="4:8">
+      <c r="D583">
+        <v>595329569</v>
+      </c>
+      <c r="E583" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F583" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G583" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H583" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="584" spans="4:8">
+      <c r="D584">
+        <v>266146861</v>
+      </c>
+      <c r="E584" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F584" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G584" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H584" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="585" spans="4:8">
+      <c r="D585">
+        <v>318675790</v>
+      </c>
+      <c r="E585" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F585" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G585" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H585" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="586" spans="4:8">
+      <c r="D586">
+        <v>601057415</v>
+      </c>
+      <c r="E586" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F586" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G586" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H586" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="587" spans="4:8">
+      <c r="D587">
+        <v>523686152</v>
+      </c>
+      <c r="E587" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F587" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G587" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H587" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="588" spans="4:8">
+      <c r="D588">
+        <v>962103832</v>
+      </c>
+      <c r="E588" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F588" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G588" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H588" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="589" spans="4:8">
+      <c r="D589">
+        <v>410498186</v>
+      </c>
+      <c r="E589" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F589" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G589" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H589" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="590" spans="4:8">
+      <c r="D590">
+        <v>310976394</v>
+      </c>
+      <c r="E590" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F590" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G590" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H590" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="591" spans="4:8">
+      <c r="D591">
+        <v>837931281</v>
+      </c>
+      <c r="E591" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F591" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G591" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H591" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="592" spans="4:8">
+      <c r="D592">
+        <v>162230925</v>
+      </c>
+      <c r="E592" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F592" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G592" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H592" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="593" spans="4:8">
+      <c r="D593">
+        <v>968364635</v>
+      </c>
+      <c r="E593" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F593" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G593" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H593" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="594" spans="4:8">
+      <c r="D594">
+        <v>694349787</v>
+      </c>
+      <c r="E594" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F594" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G594" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H594" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="595" spans="4:8">
+      <c r="D595">
+        <v>877818494</v>
+      </c>
+      <c r="E595" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F595" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G595" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H595" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="596" spans="4:8">
+      <c r="D596">
+        <v>605843862</v>
+      </c>
+      <c r="E596" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F596" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G596" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H596" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="597" spans="4:8">
+      <c r="D597">
+        <v>272937686</v>
+      </c>
+      <c r="E597" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F597" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G597" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H597" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="598" spans="4:8">
+      <c r="D598">
+        <v>971797079</v>
+      </c>
+      <c r="E598" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F598" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G598" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H598" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="599" spans="4:8">
+      <c r="D599">
+        <v>664414907</v>
+      </c>
+      <c r="E599" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F599" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G599" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H599" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="600" spans="4:8">
+      <c r="D600">
+        <v>236069752</v>
+      </c>
+      <c r="E600" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F600" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G600" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H600" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="601" spans="4:8">
+      <c r="D601">
+        <v>451299525</v>
+      </c>
+      <c r="E601" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F601" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G601" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H601" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="602" spans="4:8">
+      <c r="D602">
+        <v>412013865</v>
+      </c>
+      <c r="E602" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F602" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G602" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H602" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="603" spans="4:8">
+      <c r="D603">
+        <v>639730143</v>
+      </c>
+      <c r="E603" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F603" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G603" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H603" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="604" spans="4:8">
+      <c r="D604">
+        <v>436012175</v>
+      </c>
+      <c r="E604" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F604" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G604" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H604" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="605" spans="4:8">
+      <c r="D605">
+        <v>807172703</v>
+      </c>
+      <c r="E605" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F605" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G605" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H605" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="606" spans="4:8">
+      <c r="D606">
+        <v>223559737</v>
+      </c>
+      <c r="E606" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F606" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G606" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H606" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="607" spans="4:8">
+      <c r="D607">
+        <v>382647223</v>
+      </c>
+      <c r="E607" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F607" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G607" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H607" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="608" spans="4:8">
+      <c r="D608">
+        <v>144709314</v>
+      </c>
+      <c r="E608" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F608" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G608" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H608" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="609" spans="4:8">
+      <c r="D609">
+        <v>640488981</v>
+      </c>
+      <c r="E609" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F609" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G609" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H609" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="610" spans="4:8">
+      <c r="D610">
+        <v>998645459</v>
+      </c>
+      <c r="E610" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F610" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G610" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H610" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="611" spans="4:8">
+      <c r="D611">
+        <v>609743757</v>
+      </c>
+      <c r="E611" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F611" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G611" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H611" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="612" spans="4:8">
+      <c r="D612">
+        <v>920267382</v>
+      </c>
+      <c r="E612" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F612" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G612" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H612" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="613" spans="4:8">
+      <c r="D613">
+        <v>741726705</v>
+      </c>
+      <c r="E613" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F613" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G613" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H613" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="614" spans="4:8">
+      <c r="D614">
+        <v>789399517</v>
+      </c>
+      <c r="E614" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F614" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G614" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H614" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="615" spans="4:8">
+      <c r="D615">
+        <v>738053011</v>
+      </c>
+      <c r="E615" s="1">
+        <v>230101</v>
+      </c>
+      <c r="F615" s="1">
+        <v>230101</v>
+      </c>
+      <c r="G615" s="1">
+        <v>230101</v>
+      </c>
+      <c r="H615" s="1">
+        <v>230101</v>
+      </c>
+    </row>
+    <row r="616" spans="4:8">
+      <c r="D616">
+        <v>503743368</v>
+      </c>
+      <c r="E616" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F616" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G616" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H616" s="1">
+        <v>540101</v>
+      </c>
+    </row>
+    <row r="617" spans="4:8">
+      <c r="D617">
+        <v>110630628</v>
+      </c>
+      <c r="E617" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F617" s="1">
+        <v>540101</v>
+      </c>
+      <c r="G617" s="1">
+        <v>540101</v>
+      </c>
+      <c r="H617" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="618" spans="4:8">
+      <c r="D618">
+        <v>868925118</v>
+      </c>
+      <c r="E618" s="1">
+        <v>540101</v>
+      </c>
+      <c r="F618" s="1">
+        <v>513801</v>
+      </c>
+      <c r="G618" s="1">
+        <v>513801</v>
+      </c>
+      <c r="H618" s="1">
+        <v>513801</v>
+      </c>
+    </row>
+    <row r="619" spans="4:8">
+      <c r="D619">
+        <v>313394063</v>
+      </c>
+      <c r="E619" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F619" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G619" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H619" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="620" spans="4:8">
+      <c r="D620">
+        <v>690596569</v>
+      </c>
+      <c r="E620" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F620" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G620" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H620" s="1">
+        <v>513899</v>
+      </c>
+    </row>
+    <row r="621" spans="4:8">
+      <c r="D621">
+        <v>928545058</v>
+      </c>
+      <c r="E621" s="1">
+        <v>513899</v>
+      </c>
+      <c r="F621" s="1">
+        <v>513899</v>
+      </c>
+      <c r="G621" s="1">
+        <v>513899</v>
+      </c>
+      <c r="H621" s="1">
+        <v>230101</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:H121" xr:uid="{82C121C6-7450-499A-8199-6BBEC3240869}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>